--- a/Docs/Tables/Task1.xlsx
+++ b/Docs/Tables/Task1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman Bonna\Documents\GitHub\Healthy_Shield_Analysis\Docs\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBB857E-9B23-4AC5-ADFB-1166219BD915}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44447EC8-D05F-4221-8EF1-5E52D70EA5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Abdelrahman Bahaa Eldin Bonna</t>
   </si>
@@ -108,22 +108,28 @@
     <t>System analysis</t>
   </si>
   <si>
-    <t>Making FD and Sequance Diagram</t>
-  </si>
-  <si>
-    <t>Making ERD and senario</t>
-  </si>
-  <si>
-    <t>Use Case Diagram</t>
-  </si>
-  <si>
-    <t>Making Context</t>
-  </si>
-  <si>
     <t>Making DFD Admin</t>
   </si>
   <si>
-    <t>No</t>
+    <t>Making FD, Sequance Diagram all 5 and state transition Admin and User</t>
+  </si>
+  <si>
+    <t>Activity Diagram</t>
+  </si>
+  <si>
+    <t>Making ERD, DFD Level 1, Context, Class</t>
+  </si>
+  <si>
+    <t>Making Schema</t>
+  </si>
+  <si>
+    <t>Making Use Case</t>
+  </si>
+  <si>
+    <t>Pert &amp; Gantt</t>
+  </si>
+  <si>
+    <t>State Transistion Ambulance, Medical Places and Doctor</t>
   </si>
 </sst>
 </file>
@@ -371,15 +377,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -390,6 +387,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -676,7 +682,7 @@
   <dimension ref="A1:Q1795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,7 +692,7 @@
     <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="65.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -694,14 +700,14 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -750,12 +756,12 @@
         <v>18</v>
       </c>
       <c r="E3" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="17"/>
@@ -782,12 +788,12 @@
         <v>22</v>
       </c>
       <c r="E4" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="F4" s="23" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
-      <c r="G4" s="30" t="s">
+      <c r="G4" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="17"/>
@@ -814,10 +820,12 @@
         <v>17</v>
       </c>
       <c r="E5" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="29"/>
+      <c r="F5" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="26"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -842,10 +850,14 @@
         <v>22</v>
       </c>
       <c r="E6" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="30"/>
+      <c r="F6" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
@@ -870,10 +882,10 @@
         <v>16</v>
       </c>
       <c r="E7" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="26"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -898,12 +910,12 @@
         <v>19</v>
       </c>
       <c r="E8" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="F8" s="23" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
-      <c r="G8" s="30" t="s">
+      <c r="G8" s="27" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="17"/>
@@ -930,14 +942,12 @@
         <v>19</v>
       </c>
       <c r="E9" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>30</v>
+      <c r="F9" s="25" t="s">
+        <v>31</v>
       </c>
-      <c r="G9" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="G9" s="26"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -962,10 +972,12 @@
         <v>21</v>
       </c>
       <c r="E10" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
-      <c r="F10" s="23"/>
-      <c r="G10" s="30"/>
+      <c r="F10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="27"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -990,14 +1002,12 @@
         <v>21</v>
       </c>
       <c r="E11" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
-      <c r="G11" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="G11" s="26"/>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1022,10 +1032,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="22">
-        <v>43960</v>
+        <v>43966</v>
       </c>
       <c r="F12" s="23"/>
-      <c r="G12" s="30"/>
+      <c r="G12" s="27"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -1043,7 +1053,7 @@
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="31"/>
+      <c r="G13" s="28"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
@@ -1056,7 +1066,7 @@
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="31"/>
+      <c r="G14" s="28"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
@@ -1069,7 +1079,7 @@
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="31"/>
+      <c r="G15" s="28"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
@@ -1082,7 +1092,7 @@
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="31"/>
+      <c r="G16" s="28"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>

--- a/Docs/Tables/Task1.xlsx
+++ b/Docs/Tables/Task1.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abdelrahman Bonna\Documents\GitHub\Healthy_Shield_Analysis\Docs\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macos/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44447EC8-D05F-4221-8EF1-5E52D70EA5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Abdelrahman Bahaa Eldin Bonna</t>
   </si>
@@ -126,16 +131,19 @@
     <t>Making Use Case</t>
   </si>
   <si>
-    <t>Pert &amp; Gantt</t>
+    <t>State Transistion Ambulance, Medical Places and Doctor</t>
   </si>
   <si>
-    <t>State Transistion Ambulance, Medical Places and Doctor</t>
+    <t xml:space="preserve"> Gantt</t>
+  </si>
+  <si>
+    <t>Pert</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -239,55 +247,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -295,10 +303,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -377,9 +385,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,6 +401,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -678,38 +686,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="65.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1"/>
+    <col min="1" max="1" width="30.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="32.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-    </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:17" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
@@ -742,7 +750,7 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -761,7 +769,7 @@
       <c r="F3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="26" t="s">
+      <c r="G3" s="25" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="17"/>
@@ -774,7 +782,7 @@
       <c r="O3" s="17"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:17" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -793,7 +801,7 @@
       <c r="F4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="17"/>
@@ -806,7 +814,7 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>10</v>
       </c>
@@ -825,7 +833,9 @@
       <c r="F5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="26"/>
+      <c r="G5" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
@@ -836,7 +846,7 @@
       <c r="O5" s="17"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:17" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -855,7 +865,7 @@
       <c r="F6" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H6" s="17"/>
@@ -868,7 +878,7 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
     </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
@@ -885,7 +895,7 @@
         <v>43966</v>
       </c>
       <c r="F7" s="24"/>
-      <c r="G7" s="26"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
@@ -896,7 +906,7 @@
       <c r="O7" s="17"/>
       <c r="P7" s="17"/>
     </row>
-    <row r="8" spans="1:17" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>3</v>
       </c>
@@ -915,7 +925,7 @@
       <c r="F8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="26" t="s">
         <v>24</v>
       </c>
       <c r="H8" s="17"/>
@@ -928,7 +938,7 @@
       <c r="O8" s="17"/>
       <c r="P8" s="17"/>
     </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -944,10 +954,10 @@
       <c r="E9" s="22">
         <v>43966</v>
       </c>
-      <c r="F9" s="25" t="s">
-        <v>31</v>
+      <c r="F9" s="4" t="s">
+        <v>35</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="17"/>
       <c r="I9" s="17"/>
       <c r="J9" s="17"/>
@@ -958,7 +968,7 @@
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
     </row>
-    <row r="10" spans="1:17" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -975,9 +985,9 @@
         <v>43966</v>
       </c>
       <c r="F10" s="23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="G10" s="27"/>
+      <c r="G10" s="26"/>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -988,7 +998,7 @@
       <c r="O10" s="17"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="19" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1005,9 +1015,11 @@
         <v>43966</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="G11" s="26"/>
+      <c r="G11" s="25" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="17"/>
       <c r="I11" s="17"/>
       <c r="J11" s="17"/>
@@ -1018,7 +1030,7 @@
       <c r="O11" s="17"/>
       <c r="P11" s="17"/>
     </row>
-    <row r="12" spans="1:17" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="9" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>15</v>
       </c>
@@ -1034,8 +1046,10 @@
       <c r="E12" s="22">
         <v>43966</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="27"/>
+      <c r="F12" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="17"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17"/>
@@ -1046,59 +1060,59 @@
       <c r="O12" s="17"/>
       <c r="P12" s="17"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="19"/>
       <c r="C13" s="20"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="28"/>
+      <c r="G13" s="27"/>
       <c r="H13" s="17"/>
       <c r="I13" s="17"/>
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="B14" s="19"/>
       <c r="C14" s="20"/>
       <c r="D14" s="19"/>
       <c r="E14" s="19"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="27"/>
       <c r="H14" s="17"/>
       <c r="I14" s="17"/>
       <c r="J14" s="17"/>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="19"/>
       <c r="B15" s="19"/>
       <c r="C15" s="20"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="27"/>
       <c r="H15" s="17"/>
       <c r="I15" s="17"/>
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="20"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
       <c r="F16" s="19"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
       <c r="J16" s="17"/>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
@@ -1107,7 +1121,7 @@
       <c r="F17" s="19"/>
       <c r="G17" s="20"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="20"/>
@@ -1116,7 +1130,7 @@
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="20"/>
@@ -1125,7 +1139,7 @@
       <c r="F19" s="19"/>
       <c r="G19" s="20"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="20"/>
@@ -1134,7 +1148,7 @@
       <c r="F20" s="19"/>
       <c r="G20" s="20"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="20"/>
@@ -1143,7 +1157,7 @@
       <c r="F21" s="19"/>
       <c r="G21" s="20"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="20"/>
@@ -1152,7 +1166,7 @@
       <c r="F22" s="19"/>
       <c r="G22" s="20"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="20"/>
@@ -1161,7 +1175,7 @@
       <c r="F23" s="19"/>
       <c r="G23" s="20"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="20"/>
@@ -1170,7 +1184,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="20"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="20"/>
@@ -1179,7 +1193,7 @@
       <c r="F25" s="19"/>
       <c r="G25" s="20"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="B26" s="19"/>
       <c r="C26" s="20"/>
@@ -1188,7 +1202,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
       <c r="C27" s="20"/>
@@ -1197,7 +1211,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="20"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="19"/>
       <c r="B28" s="19"/>
       <c r="C28" s="20"/>
@@ -1206,7 +1220,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="19"/>
       <c r="B29" s="19"/>
       <c r="C29" s="20"/>
@@ -1215,7 +1229,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="20"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="19"/>
       <c r="B30" s="19"/>
       <c r="C30" s="20"/>
@@ -1224,7 +1238,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="20"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="19"/>
       <c r="B31" s="19"/>
       <c r="C31" s="20"/>
@@ -1233,7 +1247,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="20"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="19"/>
       <c r="B32" s="19"/>
       <c r="C32" s="20"/>
@@ -1242,7 +1256,7 @@
       <c r="F32" s="19"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="20"/>
@@ -1251,7 +1265,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="20"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="19"/>
       <c r="B34" s="19"/>
       <c r="C34" s="20"/>
@@ -1260,7 +1274,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="20"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="19"/>
       <c r="B35" s="19"/>
       <c r="C35" s="20"/>
@@ -1269,7 +1283,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="C36" s="20"/>
@@ -1278,7 +1292,7 @@
       <c r="F36" s="19"/>
       <c r="G36" s="20"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="19"/>
       <c r="B37" s="19"/>
       <c r="C37" s="20"/>
@@ -1287,7 +1301,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="20"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="19"/>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
@@ -1296,7 +1310,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="20"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="19"/>
       <c r="B39" s="19"/>
       <c r="C39" s="20"/>
@@ -1305,7 +1319,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="20"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="19"/>
       <c r="B40" s="19"/>
       <c r="C40" s="20"/>
@@ -1314,7 +1328,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="20"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="19"/>
       <c r="B41" s="19"/>
       <c r="C41" s="20"/>
@@ -1323,7 +1337,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="20"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="19"/>
       <c r="B42" s="19"/>
       <c r="C42" s="20"/>
@@ -1332,7 +1346,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="20"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="19"/>
       <c r="B43" s="19"/>
       <c r="C43" s="20"/>
@@ -1341,7 +1355,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="20"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="19"/>
       <c r="B44" s="19"/>
       <c r="C44" s="20"/>
@@ -1350,7 +1364,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="20"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="19"/>
       <c r="B45" s="19"/>
       <c r="C45" s="20"/>
@@ -1359,7 +1373,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="20"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="19"/>
       <c r="B46" s="19"/>
       <c r="C46" s="20"/>
@@ -1368,7 +1382,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="20"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="19"/>
       <c r="B47" s="19"/>
       <c r="C47" s="20"/>
@@ -1377,7 +1391,7 @@
       <c r="F47" s="19"/>
       <c r="G47" s="20"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="19"/>
       <c r="B48" s="19"/>
       <c r="C48" s="20"/>
@@ -1386,7 +1400,7 @@
       <c r="F48" s="19"/>
       <c r="G48" s="20"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="20"/>
@@ -1395,7 +1409,7 @@
       <c r="F49" s="19"/>
       <c r="G49" s="20"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="19"/>
       <c r="B50" s="19"/>
       <c r="C50" s="20"/>
@@ -1404,7 +1418,7 @@
       <c r="F50" s="19"/>
       <c r="G50" s="20"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="19"/>
       <c r="B51" s="19"/>
       <c r="C51" s="20"/>
@@ -1413,7 +1427,7 @@
       <c r="F51" s="19"/>
       <c r="G51" s="20"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="19"/>
       <c r="B52" s="19"/>
       <c r="C52" s="20"/>
@@ -1422,7 +1436,7 @@
       <c r="F52" s="19"/>
       <c r="G52" s="20"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="19"/>
       <c r="B53" s="19"/>
       <c r="C53" s="20"/>
@@ -1431,7 +1445,7 @@
       <c r="F53" s="19"/>
       <c r="G53" s="20"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="19"/>
       <c r="B54" s="19"/>
       <c r="C54" s="20"/>
@@ -1440,7 +1454,7 @@
       <c r="F54" s="19"/>
       <c r="G54" s="20"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="19"/>
       <c r="B55" s="19"/>
       <c r="C55" s="20"/>
@@ -1449,7 +1463,7 @@
       <c r="F55" s="19"/>
       <c r="G55" s="20"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="19"/>
       <c r="B56" s="19"/>
       <c r="C56" s="20"/>
@@ -1458,7 +1472,7 @@
       <c r="F56" s="19"/>
       <c r="G56" s="20"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="19"/>
       <c r="B57" s="19"/>
       <c r="C57" s="20"/>
@@ -1467,7 +1481,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="20"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="19"/>
       <c r="B58" s="19"/>
       <c r="C58" s="20"/>
@@ -1476,7 +1490,7 @@
       <c r="F58" s="19"/>
       <c r="G58" s="20"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="19"/>
       <c r="B59" s="19"/>
       <c r="C59" s="20"/>
@@ -1485,7 +1499,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="20"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="19"/>
       <c r="B60" s="19"/>
       <c r="C60" s="20"/>
@@ -1494,7 +1508,7 @@
       <c r="F60" s="19"/>
       <c r="G60" s="20"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="19"/>
       <c r="B61" s="19"/>
       <c r="C61" s="20"/>
@@ -1503,7 +1517,7 @@
       <c r="F61" s="19"/>
       <c r="G61" s="20"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="19"/>
       <c r="B62" s="19"/>
       <c r="C62" s="20"/>
@@ -1512,7 +1526,7 @@
       <c r="F62" s="19"/>
       <c r="G62" s="20"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="19"/>
       <c r="B63" s="19"/>
       <c r="C63" s="20"/>
@@ -1521,7 +1535,7 @@
       <c r="F63" s="19"/>
       <c r="G63" s="20"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="19"/>
       <c r="B64" s="19"/>
       <c r="C64" s="20"/>
@@ -1530,7 +1544,7 @@
       <c r="F64" s="19"/>
       <c r="G64" s="20"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="19"/>
       <c r="B65" s="19"/>
       <c r="C65" s="20"/>
@@ -1539,7 +1553,7 @@
       <c r="F65" s="19"/>
       <c r="G65" s="20"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="19"/>
       <c r="B66" s="19"/>
       <c r="C66" s="20"/>
@@ -1548,7 +1562,7 @@
       <c r="F66" s="19"/>
       <c r="G66" s="20"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="19"/>
       <c r="B67" s="19"/>
       <c r="C67" s="20"/>
@@ -1557,7 +1571,7 @@
       <c r="F67" s="19"/>
       <c r="G67" s="20"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="19"/>
       <c r="B68" s="19"/>
       <c r="C68" s="20"/>
@@ -1566,7 +1580,7 @@
       <c r="F68" s="19"/>
       <c r="G68" s="20"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="19"/>
       <c r="B69" s="19"/>
       <c r="C69" s="20"/>
@@ -1575,7 +1589,7 @@
       <c r="F69" s="19"/>
       <c r="G69" s="20"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="19"/>
       <c r="B70" s="19"/>
       <c r="C70" s="20"/>
@@ -1584,7 +1598,7 @@
       <c r="F70" s="19"/>
       <c r="G70" s="20"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="19"/>
       <c r="B71" s="19"/>
       <c r="C71" s="20"/>
@@ -1593,7 +1607,7 @@
       <c r="F71" s="19"/>
       <c r="G71" s="20"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="19"/>
       <c r="B72" s="19"/>
       <c r="C72" s="20"/>
@@ -1602,7 +1616,7 @@
       <c r="F72" s="19"/>
       <c r="G72" s="20"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="19"/>
       <c r="B73" s="19"/>
       <c r="C73" s="20"/>
@@ -1611,7 +1625,7 @@
       <c r="F73" s="19"/>
       <c r="G73" s="20"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="19"/>
       <c r="B74" s="19"/>
       <c r="C74" s="20"/>
@@ -1620,7 +1634,7 @@
       <c r="F74" s="19"/>
       <c r="G74" s="20"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="19"/>
       <c r="B75" s="19"/>
       <c r="C75" s="20"/>
@@ -1629,7 +1643,7 @@
       <c r="F75" s="19"/>
       <c r="G75" s="20"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="19"/>
       <c r="B76" s="19"/>
       <c r="C76" s="20"/>
@@ -1638,7 +1652,7 @@
       <c r="F76" s="19"/>
       <c r="G76" s="20"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="20"/>
@@ -1647,7 +1661,7 @@
       <c r="F77" s="19"/>
       <c r="G77" s="20"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="19"/>
       <c r="B78" s="19"/>
       <c r="C78" s="20"/>
@@ -1656,7 +1670,7 @@
       <c r="F78" s="19"/>
       <c r="G78" s="20"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="19"/>
       <c r="B79" s="19"/>
       <c r="C79" s="20"/>
@@ -1665,7 +1679,7 @@
       <c r="F79" s="19"/>
       <c r="G79" s="20"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="19"/>
       <c r="B80" s="19"/>
       <c r="C80" s="20"/>
@@ -1674,7 +1688,7 @@
       <c r="F80" s="19"/>
       <c r="G80" s="20"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="19"/>
       <c r="B81" s="19"/>
       <c r="C81" s="20"/>
@@ -1683,7 +1697,7 @@
       <c r="F81" s="19"/>
       <c r="G81" s="20"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="19"/>
       <c r="B82" s="19"/>
       <c r="C82" s="20"/>
@@ -1692,7 +1706,7 @@
       <c r="F82" s="19"/>
       <c r="G82" s="20"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="19"/>
       <c r="B83" s="19"/>
       <c r="C83" s="20"/>
@@ -1701,7 +1715,7 @@
       <c r="F83" s="19"/>
       <c r="G83" s="20"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="19"/>
       <c r="B84" s="19"/>
       <c r="C84" s="20"/>
@@ -1710,7 +1724,7 @@
       <c r="F84" s="19"/>
       <c r="G84" s="20"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="19"/>
       <c r="B85" s="19"/>
       <c r="C85" s="20"/>
@@ -1719,7 +1733,7 @@
       <c r="F85" s="19"/>
       <c r="G85" s="20"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="19"/>
       <c r="B86" s="19"/>
       <c r="C86" s="20"/>
@@ -1728,7 +1742,7 @@
       <c r="F86" s="19"/>
       <c r="G86" s="20"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="19"/>
       <c r="B87" s="19"/>
       <c r="C87" s="20"/>
@@ -1737,7 +1751,7 @@
       <c r="F87" s="19"/>
       <c r="G87" s="20"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="19"/>
       <c r="B88" s="19"/>
       <c r="C88" s="20"/>
@@ -1746,7 +1760,7 @@
       <c r="F88" s="19"/>
       <c r="G88" s="20"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="19"/>
       <c r="B89" s="19"/>
       <c r="C89" s="20"/>
@@ -1755,7 +1769,7 @@
       <c r="F89" s="19"/>
       <c r="G89" s="20"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="19"/>
       <c r="B90" s="19"/>
       <c r="C90" s="20"/>
@@ -1764,7 +1778,7 @@
       <c r="F90" s="19"/>
       <c r="G90" s="20"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="20"/>
@@ -1773,7 +1787,7 @@
       <c r="F91" s="19"/>
       <c r="G91" s="20"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="19"/>
       <c r="B92" s="19"/>
       <c r="C92" s="20"/>
@@ -1782,7 +1796,7 @@
       <c r="F92" s="19"/>
       <c r="G92" s="20"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="19"/>
       <c r="B93" s="19"/>
       <c r="C93" s="20"/>
@@ -1791,7 +1805,7 @@
       <c r="F93" s="19"/>
       <c r="G93" s="20"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="19"/>
       <c r="B94" s="19"/>
       <c r="C94" s="20"/>
@@ -1800,7 +1814,7 @@
       <c r="F94" s="19"/>
       <c r="G94" s="20"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="19"/>
       <c r="B95" s="19"/>
       <c r="C95" s="20"/>
@@ -1809,7 +1823,7 @@
       <c r="F95" s="19"/>
       <c r="G95" s="20"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="19"/>
       <c r="B96" s="19"/>
       <c r="C96" s="20"/>
@@ -1818,7 +1832,7 @@
       <c r="F96" s="19"/>
       <c r="G96" s="20"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="19"/>
       <c r="B97" s="19"/>
       <c r="C97" s="20"/>
@@ -1827,7 +1841,7 @@
       <c r="F97" s="19"/>
       <c r="G97" s="20"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="19"/>
       <c r="B98" s="19"/>
       <c r="C98" s="20"/>
@@ -1836,7 +1850,7 @@
       <c r="F98" s="19"/>
       <c r="G98" s="20"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="19"/>
       <c r="B99" s="19"/>
       <c r="C99" s="20"/>
@@ -1845,7 +1859,7 @@
       <c r="F99" s="19"/>
       <c r="G99" s="20"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="19"/>
       <c r="B100" s="19"/>
       <c r="C100" s="20"/>
@@ -1854,7 +1868,7 @@
       <c r="F100" s="19"/>
       <c r="G100" s="20"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="19"/>
       <c r="B101" s="19"/>
       <c r="C101" s="20"/>
@@ -1863,7 +1877,7 @@
       <c r="F101" s="19"/>
       <c r="G101" s="20"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="19"/>
       <c r="B102" s="19"/>
       <c r="C102" s="20"/>
@@ -1872,7 +1886,7 @@
       <c r="F102" s="19"/>
       <c r="G102" s="20"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="19"/>
       <c r="B103" s="19"/>
       <c r="C103" s="20"/>
@@ -1881,7 +1895,7 @@
       <c r="F103" s="19"/>
       <c r="G103" s="20"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="19"/>
       <c r="B104" s="19"/>
       <c r="C104" s="20"/>
@@ -1890,7 +1904,7 @@
       <c r="F104" s="19"/>
       <c r="G104" s="20"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="20"/>
@@ -1899,7 +1913,7 @@
       <c r="F105" s="19"/>
       <c r="G105" s="20"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="19"/>
       <c r="B106" s="19"/>
       <c r="C106" s="20"/>
@@ -1908,7 +1922,7 @@
       <c r="F106" s="19"/>
       <c r="G106" s="20"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="19"/>
       <c r="B107" s="19"/>
       <c r="C107" s="20"/>
@@ -1917,7 +1931,7 @@
       <c r="F107" s="19"/>
       <c r="G107" s="20"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="19"/>
       <c r="B108" s="19"/>
       <c r="C108" s="20"/>
@@ -1926,7 +1940,7 @@
       <c r="F108" s="19"/>
       <c r="G108" s="20"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="19"/>
       <c r="B109" s="19"/>
       <c r="C109" s="20"/>
@@ -1935,7 +1949,7 @@
       <c r="F109" s="19"/>
       <c r="G109" s="20"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="19"/>
       <c r="B110" s="19"/>
       <c r="C110" s="20"/>
@@ -1944,7 +1958,7 @@
       <c r="F110" s="19"/>
       <c r="G110" s="20"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="19"/>
       <c r="B111" s="19"/>
       <c r="C111" s="20"/>
@@ -1953,7 +1967,7 @@
       <c r="F111" s="19"/>
       <c r="G111" s="20"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="19"/>
       <c r="B112" s="19"/>
       <c r="C112" s="20"/>
@@ -1962,7 +1976,7 @@
       <c r="F112" s="19"/>
       <c r="G112" s="20"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
       <c r="C113" s="20"/>
@@ -1971,7 +1985,7 @@
       <c r="F113" s="19"/>
       <c r="G113" s="20"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="19"/>
       <c r="B114" s="19"/>
       <c r="C114" s="20"/>
@@ -1980,7 +1994,7 @@
       <c r="F114" s="19"/>
       <c r="G114" s="20"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="19"/>
       <c r="B115" s="19"/>
       <c r="C115" s="20"/>
@@ -1989,7 +2003,7 @@
       <c r="F115" s="19"/>
       <c r="G115" s="20"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="19"/>
       <c r="B116" s="19"/>
       <c r="C116" s="20"/>
@@ -1998,7 +2012,7 @@
       <c r="F116" s="19"/>
       <c r="G116" s="20"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="19"/>
       <c r="B117" s="19"/>
       <c r="C117" s="20"/>
@@ -2007,7 +2021,7 @@
       <c r="F117" s="19"/>
       <c r="G117" s="20"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="19"/>
       <c r="B118" s="19"/>
       <c r="C118" s="20"/>
@@ -2016,7 +2030,7 @@
       <c r="F118" s="19"/>
       <c r="G118" s="20"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="19"/>
       <c r="B119" s="19"/>
       <c r="C119" s="20"/>
@@ -2025,7 +2039,7 @@
       <c r="F119" s="19"/>
       <c r="G119" s="20"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" s="19"/>
       <c r="B120" s="19"/>
       <c r="C120" s="20"/>
@@ -2034,7 +2048,7 @@
       <c r="F120" s="19"/>
       <c r="G120" s="20"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="19"/>
       <c r="B121" s="19"/>
       <c r="C121" s="20"/>
@@ -2043,7 +2057,7 @@
       <c r="F121" s="19"/>
       <c r="G121" s="20"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="19"/>
       <c r="B122" s="19"/>
       <c r="C122" s="20"/>
@@ -2052,7 +2066,7 @@
       <c r="F122" s="19"/>
       <c r="G122" s="20"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="19"/>
       <c r="B123" s="19"/>
       <c r="C123" s="20"/>
@@ -2061,7 +2075,7 @@
       <c r="F123" s="19"/>
       <c r="G123" s="20"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="19"/>
       <c r="B124" s="19"/>
       <c r="C124" s="20"/>
@@ -2070,7 +2084,7 @@
       <c r="F124" s="19"/>
       <c r="G124" s="20"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="19"/>
       <c r="B125" s="19"/>
       <c r="C125" s="20"/>
@@ -2079,7 +2093,7 @@
       <c r="F125" s="19"/>
       <c r="G125" s="20"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="19"/>
       <c r="B126" s="19"/>
       <c r="C126" s="20"/>
@@ -2088,7 +2102,7 @@
       <c r="F126" s="19"/>
       <c r="G126" s="20"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="19"/>
       <c r="B127" s="19"/>
       <c r="C127" s="20"/>
@@ -2097,7 +2111,7 @@
       <c r="F127" s="19"/>
       <c r="G127" s="20"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="19"/>
       <c r="B128" s="19"/>
       <c r="C128" s="20"/>
@@ -2106,7 +2120,7 @@
       <c r="F128" s="19"/>
       <c r="G128" s="20"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="19"/>
       <c r="B129" s="19"/>
       <c r="C129" s="20"/>
@@ -2115,7 +2129,7 @@
       <c r="F129" s="19"/>
       <c r="G129" s="20"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="19"/>
       <c r="B130" s="19"/>
       <c r="C130" s="20"/>
@@ -2124,7 +2138,7 @@
       <c r="F130" s="19"/>
       <c r="G130" s="20"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="19"/>
       <c r="B131" s="19"/>
       <c r="C131" s="20"/>
@@ -2133,7 +2147,7 @@
       <c r="F131" s="19"/>
       <c r="G131" s="20"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="19"/>
       <c r="B132" s="19"/>
       <c r="C132" s="20"/>
@@ -2142,7 +2156,7 @@
       <c r="F132" s="19"/>
       <c r="G132" s="20"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" s="19"/>
       <c r="B133" s="19"/>
       <c r="C133" s="20"/>
@@ -2151,7 +2165,7 @@
       <c r="F133" s="19"/>
       <c r="G133" s="20"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" s="19"/>
       <c r="B134" s="19"/>
       <c r="C134" s="20"/>
@@ -2160,7 +2174,7 @@
       <c r="F134" s="19"/>
       <c r="G134" s="20"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" s="19"/>
       <c r="B135" s="19"/>
       <c r="C135" s="20"/>
@@ -2169,7 +2183,7 @@
       <c r="F135" s="19"/>
       <c r="G135" s="20"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" s="19"/>
       <c r="B136" s="19"/>
       <c r="C136" s="20"/>
@@ -2178,7 +2192,7 @@
       <c r="F136" s="19"/>
       <c r="G136" s="20"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" s="19"/>
       <c r="B137" s="19"/>
       <c r="C137" s="20"/>
@@ -2187,7 +2201,7 @@
       <c r="F137" s="19"/>
       <c r="G137" s="20"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" s="19"/>
       <c r="B138" s="19"/>
       <c r="C138" s="20"/>
@@ -2196,7 +2210,7 @@
       <c r="F138" s="19"/>
       <c r="G138" s="20"/>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" s="19"/>
       <c r="B139" s="19"/>
       <c r="C139" s="20"/>
@@ -2205,7 +2219,7 @@
       <c r="F139" s="19"/>
       <c r="G139" s="20"/>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" s="19"/>
       <c r="B140" s="19"/>
       <c r="C140" s="20"/>
@@ -2214,7 +2228,7 @@
       <c r="F140" s="19"/>
       <c r="G140" s="20"/>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" s="19"/>
       <c r="B141" s="19"/>
       <c r="C141" s="20"/>
@@ -2223,7 +2237,7 @@
       <c r="F141" s="19"/>
       <c r="G141" s="20"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" s="19"/>
       <c r="B142" s="19"/>
       <c r="C142" s="20"/>
@@ -2232,7 +2246,7 @@
       <c r="F142" s="19"/>
       <c r="G142" s="20"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" s="19"/>
       <c r="B143" s="19"/>
       <c r="C143" s="20"/>
@@ -2241,7 +2255,7 @@
       <c r="F143" s="19"/>
       <c r="G143" s="20"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" s="19"/>
       <c r="B144" s="19"/>
       <c r="C144" s="20"/>
@@ -2250,7 +2264,7 @@
       <c r="F144" s="19"/>
       <c r="G144" s="20"/>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145" s="19"/>
       <c r="B145" s="19"/>
       <c r="C145" s="20"/>
@@ -2259,7 +2273,7 @@
       <c r="F145" s="19"/>
       <c r="G145" s="20"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146" s="19"/>
       <c r="B146" s="19"/>
       <c r="C146" s="20"/>
@@ -2268,7 +2282,7 @@
       <c r="F146" s="19"/>
       <c r="G146" s="20"/>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147" s="19"/>
       <c r="B147" s="19"/>
       <c r="C147" s="20"/>
@@ -2277,7 +2291,7 @@
       <c r="F147" s="19"/>
       <c r="G147" s="20"/>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148" s="19"/>
       <c r="B148" s="19"/>
       <c r="C148" s="20"/>
@@ -2286,7 +2300,7 @@
       <c r="F148" s="19"/>
       <c r="G148" s="20"/>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="19"/>
       <c r="B149" s="19"/>
       <c r="C149" s="20"/>
@@ -2295,7 +2309,7 @@
       <c r="F149" s="19"/>
       <c r="G149" s="20"/>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150" s="19"/>
       <c r="B150" s="19"/>
       <c r="C150" s="20"/>
@@ -2304,7 +2318,7 @@
       <c r="F150" s="19"/>
       <c r="G150" s="20"/>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151" s="19"/>
       <c r="B151" s="19"/>
       <c r="C151" s="20"/>
@@ -2313,7 +2327,7 @@
       <c r="F151" s="19"/>
       <c r="G151" s="20"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152" s="19"/>
       <c r="B152" s="19"/>
       <c r="C152" s="20"/>
@@ -2322,7 +2336,7 @@
       <c r="F152" s="19"/>
       <c r="G152" s="20"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153" s="19"/>
       <c r="B153" s="19"/>
       <c r="C153" s="20"/>
@@ -2331,7 +2345,7 @@
       <c r="F153" s="19"/>
       <c r="G153" s="20"/>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154" s="19"/>
       <c r="B154" s="19"/>
       <c r="C154" s="20"/>
@@ -2340,7 +2354,7 @@
       <c r="F154" s="19"/>
       <c r="G154" s="20"/>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155" s="19"/>
       <c r="B155" s="19"/>
       <c r="C155" s="20"/>
@@ -2349,7 +2363,7 @@
       <c r="F155" s="19"/>
       <c r="G155" s="20"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156" s="19"/>
       <c r="B156" s="19"/>
       <c r="C156" s="20"/>
@@ -2358,7 +2372,7 @@
       <c r="F156" s="19"/>
       <c r="G156" s="20"/>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157" s="19"/>
       <c r="B157" s="19"/>
       <c r="C157" s="20"/>
@@ -2367,7 +2381,7 @@
       <c r="F157" s="19"/>
       <c r="G157" s="20"/>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158" s="19"/>
       <c r="B158" s="19"/>
       <c r="C158" s="20"/>
@@ -2376,7 +2390,7 @@
       <c r="F158" s="19"/>
       <c r="G158" s="20"/>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159" s="19"/>
       <c r="B159" s="19"/>
       <c r="C159" s="20"/>
@@ -2385,7 +2399,7 @@
       <c r="F159" s="19"/>
       <c r="G159" s="20"/>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160" s="19"/>
       <c r="B160" s="19"/>
       <c r="C160" s="20"/>
@@ -2394,7 +2408,7 @@
       <c r="F160" s="19"/>
       <c r="G160" s="20"/>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" s="19"/>
       <c r="B161" s="19"/>
       <c r="C161" s="20"/>
@@ -2403,7 +2417,7 @@
       <c r="F161" s="19"/>
       <c r="G161" s="20"/>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" s="19"/>
       <c r="B162" s="19"/>
       <c r="C162" s="20"/>
@@ -2412,7 +2426,7 @@
       <c r="F162" s="19"/>
       <c r="G162" s="20"/>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" s="19"/>
       <c r="B163" s="19"/>
       <c r="C163" s="20"/>
@@ -2421,7 +2435,7 @@
       <c r="F163" s="19"/>
       <c r="G163" s="20"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" s="19"/>
       <c r="B164" s="19"/>
       <c r="C164" s="20"/>
@@ -2430,7 +2444,7 @@
       <c r="F164" s="19"/>
       <c r="G164" s="20"/>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="19"/>
       <c r="B165" s="19"/>
       <c r="C165" s="20"/>
@@ -2439,7 +2453,7 @@
       <c r="F165" s="19"/>
       <c r="G165" s="20"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="19"/>
       <c r="B166" s="19"/>
       <c r="C166" s="20"/>
@@ -2448,7 +2462,7 @@
       <c r="F166" s="19"/>
       <c r="G166" s="20"/>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" s="19"/>
       <c r="B167" s="19"/>
       <c r="C167" s="20"/>
@@ -2457,7 +2471,7 @@
       <c r="F167" s="19"/>
       <c r="G167" s="20"/>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" s="19"/>
       <c r="B168" s="19"/>
       <c r="C168" s="20"/>
@@ -2466,7 +2480,7 @@
       <c r="F168" s="19"/>
       <c r="G168" s="20"/>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" s="19"/>
       <c r="B169" s="19"/>
       <c r="C169" s="20"/>
@@ -2475,7 +2489,7 @@
       <c r="F169" s="19"/>
       <c r="G169" s="20"/>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" s="19"/>
       <c r="B170" s="19"/>
       <c r="C170" s="20"/>
@@ -2484,7 +2498,7 @@
       <c r="F170" s="19"/>
       <c r="G170" s="20"/>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" s="19"/>
       <c r="B171" s="19"/>
       <c r="C171" s="20"/>
@@ -2493,7 +2507,7 @@
       <c r="F171" s="19"/>
       <c r="G171" s="20"/>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" s="19"/>
       <c r="B172" s="19"/>
       <c r="C172" s="20"/>
@@ -2502,7 +2516,7 @@
       <c r="F172" s="19"/>
       <c r="G172" s="20"/>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" s="19"/>
       <c r="B173" s="19"/>
       <c r="C173" s="20"/>
@@ -2511,7 +2525,7 @@
       <c r="F173" s="19"/>
       <c r="G173" s="20"/>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" s="19"/>
       <c r="B174" s="19"/>
       <c r="C174" s="20"/>
@@ -2520,7 +2534,7 @@
       <c r="F174" s="19"/>
       <c r="G174" s="20"/>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" s="19"/>
       <c r="B175" s="19"/>
       <c r="C175" s="20"/>
@@ -2529,7 +2543,7 @@
       <c r="F175" s="19"/>
       <c r="G175" s="20"/>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" s="19"/>
       <c r="B176" s="19"/>
       <c r="C176" s="20"/>
@@ -2538,7 +2552,7 @@
       <c r="F176" s="19"/>
       <c r="G176" s="20"/>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A177" s="19"/>
       <c r="B177" s="19"/>
       <c r="C177" s="20"/>
@@ -2547,7 +2561,7 @@
       <c r="F177" s="19"/>
       <c r="G177" s="20"/>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A178" s="19"/>
       <c r="B178" s="19"/>
       <c r="C178" s="20"/>
@@ -2556,7 +2570,7 @@
       <c r="F178" s="19"/>
       <c r="G178" s="20"/>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A179" s="19"/>
       <c r="B179" s="19"/>
       <c r="C179" s="20"/>
@@ -2565,7 +2579,7 @@
       <c r="F179" s="19"/>
       <c r="G179" s="20"/>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A180" s="19"/>
       <c r="B180" s="19"/>
       <c r="C180" s="20"/>
@@ -2574,7 +2588,7 @@
       <c r="F180" s="19"/>
       <c r="G180" s="20"/>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A181" s="19"/>
       <c r="B181" s="19"/>
       <c r="C181" s="20"/>
@@ -2583,7 +2597,7 @@
       <c r="F181" s="19"/>
       <c r="G181" s="20"/>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A182" s="19"/>
       <c r="B182" s="19"/>
       <c r="C182" s="20"/>
@@ -2592,7 +2606,7 @@
       <c r="F182" s="19"/>
       <c r="G182" s="20"/>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A183" s="19"/>
       <c r="B183" s="19"/>
       <c r="C183" s="20"/>
@@ -2601,7 +2615,7 @@
       <c r="F183" s="19"/>
       <c r="G183" s="20"/>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A184" s="19"/>
       <c r="B184" s="19"/>
       <c r="C184" s="20"/>
@@ -2610,7 +2624,7 @@
       <c r="F184" s="19"/>
       <c r="G184" s="20"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A185" s="19"/>
       <c r="B185" s="19"/>
       <c r="C185" s="20"/>
@@ -2619,7 +2633,7 @@
       <c r="F185" s="19"/>
       <c r="G185" s="20"/>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A186" s="19"/>
       <c r="B186" s="19"/>
       <c r="C186" s="20"/>
@@ -2628,7 +2642,7 @@
       <c r="F186" s="19"/>
       <c r="G186" s="20"/>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A187" s="19"/>
       <c r="B187" s="19"/>
       <c r="C187" s="20"/>
@@ -2637,7 +2651,7 @@
       <c r="F187" s="19"/>
       <c r="G187" s="20"/>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A188" s="19"/>
       <c r="B188" s="19"/>
       <c r="C188" s="20"/>
@@ -2646,7 +2660,7 @@
       <c r="F188" s="19"/>
       <c r="G188" s="20"/>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A189" s="19"/>
       <c r="B189" s="19"/>
       <c r="C189" s="20"/>
@@ -2655,7 +2669,7 @@
       <c r="F189" s="19"/>
       <c r="G189" s="20"/>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A190" s="19"/>
       <c r="B190" s="19"/>
       <c r="C190" s="20"/>
@@ -2664,7 +2678,7 @@
       <c r="F190" s="19"/>
       <c r="G190" s="20"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A191" s="19"/>
       <c r="B191" s="19"/>
       <c r="C191" s="20"/>
@@ -2673,7 +2687,7 @@
       <c r="F191" s="19"/>
       <c r="G191" s="20"/>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A192" s="19"/>
       <c r="B192" s="19"/>
       <c r="C192" s="20"/>
@@ -2682,7 +2696,7 @@
       <c r="F192" s="19"/>
       <c r="G192" s="20"/>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A193" s="19"/>
       <c r="B193" s="19"/>
       <c r="C193" s="20"/>
@@ -2691,7 +2705,7 @@
       <c r="F193" s="19"/>
       <c r="G193" s="20"/>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A194" s="19"/>
       <c r="B194" s="19"/>
       <c r="C194" s="20"/>
@@ -2700,7 +2714,7 @@
       <c r="F194" s="19"/>
       <c r="G194" s="20"/>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A195" s="19"/>
       <c r="B195" s="19"/>
       <c r="C195" s="20"/>
@@ -2709,4804 +2723,4804 @@
       <c r="F195" s="19"/>
       <c r="G195" s="20"/>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G196" s="20"/>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G197" s="20"/>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G198" s="20"/>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G199" s="20"/>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G200" s="20"/>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G201" s="20"/>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G202" s="20"/>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G203" s="20"/>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G204" s="20"/>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G205" s="20"/>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G206" s="20"/>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G207" s="20"/>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G208" s="20"/>
     </row>
-    <row r="209" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G209" s="20"/>
     </row>
-    <row r="210" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G210" s="20"/>
     </row>
-    <row r="211" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G211" s="20"/>
     </row>
-    <row r="212" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G212" s="20"/>
     </row>
-    <row r="213" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G213" s="20"/>
     </row>
-    <row r="214" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G214" s="20"/>
     </row>
-    <row r="215" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G215" s="20"/>
     </row>
-    <row r="216" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G216" s="20"/>
     </row>
-    <row r="217" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G217" s="20"/>
     </row>
-    <row r="218" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G218" s="20"/>
     </row>
-    <row r="219" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G219" s="20"/>
     </row>
-    <row r="220" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G220" s="20"/>
     </row>
-    <row r="221" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G221" s="20"/>
     </row>
-    <row r="222" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G222" s="20"/>
     </row>
-    <row r="223" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G223" s="20"/>
     </row>
-    <row r="224" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G224" s="20"/>
     </row>
-    <row r="225" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G225" s="20"/>
     </row>
-    <row r="226" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G226" s="20"/>
     </row>
-    <row r="227" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G227" s="20"/>
     </row>
-    <row r="228" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G228" s="20"/>
     </row>
-    <row r="229" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G229" s="20"/>
     </row>
-    <row r="230" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G230" s="20"/>
     </row>
-    <row r="231" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G231" s="20"/>
     </row>
-    <row r="232" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G232" s="20"/>
     </row>
-    <row r="233" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G233" s="20"/>
     </row>
-    <row r="234" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G234" s="20"/>
     </row>
-    <row r="235" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G235" s="20"/>
     </row>
-    <row r="236" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G236" s="20"/>
     </row>
-    <row r="237" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G237" s="20"/>
     </row>
-    <row r="238" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G238" s="20"/>
     </row>
-    <row r="239" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G239" s="20"/>
     </row>
-    <row r="240" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G240" s="20"/>
     </row>
-    <row r="241" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G241" s="20"/>
     </row>
-    <row r="242" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G242" s="20"/>
     </row>
-    <row r="243" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G243" s="20"/>
     </row>
-    <row r="244" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G244" s="20"/>
     </row>
-    <row r="245" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G245" s="20"/>
     </row>
-    <row r="246" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G246" s="20"/>
     </row>
-    <row r="247" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G247" s="20"/>
     </row>
-    <row r="248" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G248" s="20"/>
     </row>
-    <row r="249" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G249" s="20"/>
     </row>
-    <row r="250" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G250" s="20"/>
     </row>
-    <row r="251" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G251" s="20"/>
     </row>
-    <row r="252" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G252" s="20"/>
     </row>
-    <row r="253" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G253" s="20"/>
     </row>
-    <row r="254" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G254" s="20"/>
     </row>
-    <row r="255" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G255" s="20"/>
     </row>
-    <row r="256" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G256" s="20"/>
     </row>
-    <row r="257" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G257" s="20"/>
     </row>
-    <row r="258" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G258" s="20"/>
     </row>
-    <row r="259" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G259" s="20"/>
     </row>
-    <row r="260" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G260" s="20"/>
     </row>
-    <row r="261" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G261" s="20"/>
     </row>
-    <row r="262" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G262" s="20"/>
     </row>
-    <row r="263" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G263" s="20"/>
     </row>
-    <row r="264" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G264" s="20"/>
     </row>
-    <row r="265" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G265" s="20"/>
     </row>
-    <row r="266" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G266" s="20"/>
     </row>
-    <row r="267" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G267" s="20"/>
     </row>
-    <row r="268" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G268" s="20"/>
     </row>
-    <row r="269" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G269" s="20"/>
     </row>
-    <row r="270" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G270" s="20"/>
     </row>
-    <row r="271" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G271" s="20"/>
     </row>
-    <row r="272" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G272" s="20"/>
     </row>
-    <row r="273" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G273" s="20"/>
     </row>
-    <row r="274" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G274" s="20"/>
     </row>
-    <row r="275" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G275" s="20"/>
     </row>
-    <row r="276" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G276" s="20"/>
     </row>
-    <row r="277" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G277" s="20"/>
     </row>
-    <row r="278" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G278" s="20"/>
     </row>
-    <row r="279" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G279" s="20"/>
     </row>
-    <row r="280" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G280" s="20"/>
     </row>
-    <row r="281" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G281" s="20"/>
     </row>
-    <row r="282" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G282" s="20"/>
     </row>
-    <row r="283" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G283" s="20"/>
     </row>
-    <row r="284" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G284" s="20"/>
     </row>
-    <row r="285" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G285" s="20"/>
     </row>
-    <row r="286" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G286" s="20"/>
     </row>
-    <row r="287" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G287" s="20"/>
     </row>
-    <row r="288" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G288" s="20"/>
     </row>
-    <row r="289" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G289" s="20"/>
     </row>
-    <row r="290" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G290" s="20"/>
     </row>
-    <row r="291" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G291" s="20"/>
     </row>
-    <row r="292" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G292" s="20"/>
     </row>
-    <row r="293" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G293" s="20"/>
     </row>
-    <row r="294" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G294" s="20"/>
     </row>
-    <row r="295" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G295" s="20"/>
     </row>
-    <row r="296" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G296" s="20"/>
     </row>
-    <row r="297" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G297" s="20"/>
     </row>
-    <row r="298" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G298" s="20"/>
     </row>
-    <row r="299" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G299" s="20"/>
     </row>
-    <row r="300" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G300" s="20"/>
     </row>
-    <row r="301" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G301" s="20"/>
     </row>
-    <row r="302" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G302" s="20"/>
     </row>
-    <row r="303" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G303" s="20"/>
     </row>
-    <row r="304" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G304" s="20"/>
     </row>
-    <row r="305" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G305" s="20"/>
     </row>
-    <row r="306" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G306" s="20"/>
     </row>
-    <row r="307" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G307" s="20"/>
     </row>
-    <row r="308" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G308" s="20"/>
     </row>
-    <row r="309" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G309" s="20"/>
     </row>
-    <row r="310" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G310" s="20"/>
     </row>
-    <row r="311" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G311" s="20"/>
     </row>
-    <row r="312" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G312" s="20"/>
     </row>
-    <row r="313" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G313" s="20"/>
     </row>
-    <row r="314" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G314" s="20"/>
     </row>
-    <row r="315" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G315" s="20"/>
     </row>
-    <row r="316" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G316" s="20"/>
     </row>
-    <row r="317" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G317" s="20"/>
     </row>
-    <row r="318" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G318" s="20"/>
     </row>
-    <row r="319" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G319" s="20"/>
     </row>
-    <row r="320" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G320" s="20"/>
     </row>
-    <row r="321" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G321" s="20"/>
     </row>
-    <row r="322" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G322" s="20"/>
     </row>
-    <row r="323" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G323" s="20"/>
     </row>
-    <row r="324" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G324" s="20"/>
     </row>
-    <row r="325" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G325" s="20"/>
     </row>
-    <row r="326" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G326" s="20"/>
     </row>
-    <row r="327" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G327" s="20"/>
     </row>
-    <row r="328" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G328" s="20"/>
     </row>
-    <row r="329" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G329" s="20"/>
     </row>
-    <row r="330" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G330" s="20"/>
     </row>
-    <row r="331" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G331" s="20"/>
     </row>
-    <row r="332" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G332" s="20"/>
     </row>
-    <row r="333" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G333" s="20"/>
     </row>
-    <row r="334" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G334" s="20"/>
     </row>
-    <row r="335" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G335" s="20"/>
     </row>
-    <row r="336" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G336" s="20"/>
     </row>
-    <row r="337" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G337" s="20"/>
     </row>
-    <row r="338" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G338" s="20"/>
     </row>
-    <row r="339" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G339" s="20"/>
     </row>
-    <row r="340" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G340" s="20"/>
     </row>
-    <row r="341" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G341" s="20"/>
     </row>
-    <row r="342" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G342" s="20"/>
     </row>
-    <row r="343" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G343" s="20"/>
     </row>
-    <row r="344" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G344" s="20"/>
     </row>
-    <row r="345" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G345" s="20"/>
     </row>
-    <row r="346" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G346" s="20"/>
     </row>
-    <row r="347" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G347" s="20"/>
     </row>
-    <row r="348" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G348" s="20"/>
     </row>
-    <row r="349" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G349" s="20"/>
     </row>
-    <row r="350" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G350" s="20"/>
     </row>
-    <row r="351" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G351" s="20"/>
     </row>
-    <row r="352" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G352" s="20"/>
     </row>
-    <row r="353" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G353" s="20"/>
     </row>
-    <row r="354" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G354" s="20"/>
     </row>
-    <row r="355" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G355" s="20"/>
     </row>
-    <row r="356" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G356" s="20"/>
     </row>
-    <row r="357" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G357" s="20"/>
     </row>
-    <row r="358" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G358" s="20"/>
     </row>
-    <row r="359" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G359" s="20"/>
     </row>
-    <row r="360" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G360" s="20"/>
     </row>
-    <row r="361" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G361" s="20"/>
     </row>
-    <row r="362" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G362" s="20"/>
     </row>
-    <row r="363" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G363" s="20"/>
     </row>
-    <row r="364" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G364" s="20"/>
     </row>
-    <row r="365" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G365" s="20"/>
     </row>
-    <row r="366" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G366" s="20"/>
     </row>
-    <row r="367" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G367" s="20"/>
     </row>
-    <row r="368" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G368" s="20"/>
     </row>
-    <row r="369" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G369" s="20"/>
     </row>
-    <row r="370" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G370" s="20"/>
     </row>
-    <row r="371" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G371" s="20"/>
     </row>
-    <row r="372" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G372" s="20"/>
     </row>
-    <row r="373" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G373" s="20"/>
     </row>
-    <row r="374" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G374" s="20"/>
     </row>
-    <row r="375" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G375" s="20"/>
     </row>
-    <row r="376" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G376" s="20"/>
     </row>
-    <row r="377" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G377" s="20"/>
     </row>
-    <row r="378" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G378" s="20"/>
     </row>
-    <row r="379" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G379" s="20"/>
     </row>
-    <row r="380" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G380" s="20"/>
     </row>
-    <row r="381" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G381" s="20"/>
     </row>
-    <row r="382" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G382" s="20"/>
     </row>
-    <row r="383" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G383" s="20"/>
     </row>
-    <row r="384" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G384" s="20"/>
     </row>
-    <row r="385" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="385" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G385" s="20"/>
     </row>
-    <row r="386" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="386" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G386" s="20"/>
     </row>
-    <row r="387" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="387" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G387" s="20"/>
     </row>
-    <row r="388" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="388" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G388" s="20"/>
     </row>
-    <row r="389" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="389" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G389" s="20"/>
     </row>
-    <row r="390" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="390" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G390" s="20"/>
     </row>
-    <row r="391" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="391" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G391" s="20"/>
     </row>
-    <row r="392" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="392" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G392" s="20"/>
     </row>
-    <row r="393" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="393" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G393" s="20"/>
     </row>
-    <row r="394" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="394" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G394" s="20"/>
     </row>
-    <row r="395" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="395" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G395" s="20"/>
     </row>
-    <row r="396" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="396" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G396" s="20"/>
     </row>
-    <row r="397" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="397" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G397" s="20"/>
     </row>
-    <row r="398" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="398" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G398" s="20"/>
     </row>
-    <row r="399" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="399" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G399" s="20"/>
     </row>
-    <row r="400" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="400" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G400" s="20"/>
     </row>
-    <row r="401" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="401" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G401" s="20"/>
     </row>
-    <row r="402" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="402" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G402" s="20"/>
     </row>
-    <row r="403" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="403" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G403" s="20"/>
     </row>
-    <row r="404" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="404" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G404" s="20"/>
     </row>
-    <row r="405" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="405" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G405" s="20"/>
     </row>
-    <row r="406" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="406" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G406" s="20"/>
     </row>
-    <row r="407" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="407" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G407" s="20"/>
     </row>
-    <row r="408" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="408" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G408" s="20"/>
     </row>
-    <row r="409" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="409" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G409" s="20"/>
     </row>
-    <row r="410" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="410" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G410" s="20"/>
     </row>
-    <row r="411" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="411" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G411" s="20"/>
     </row>
-    <row r="412" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="412" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G412" s="20"/>
     </row>
-    <row r="413" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="413" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G413" s="20"/>
     </row>
-    <row r="414" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="414" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G414" s="20"/>
     </row>
-    <row r="415" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="415" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G415" s="20"/>
     </row>
-    <row r="416" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="416" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G416" s="20"/>
     </row>
-    <row r="417" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="417" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G417" s="20"/>
     </row>
-    <row r="418" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="418" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G418" s="20"/>
     </row>
-    <row r="419" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="419" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G419" s="20"/>
     </row>
-    <row r="420" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="420" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G420" s="20"/>
     </row>
-    <row r="421" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="421" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G421" s="20"/>
     </row>
-    <row r="422" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="422" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G422" s="20"/>
     </row>
-    <row r="423" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="423" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G423" s="20"/>
     </row>
-    <row r="424" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="424" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G424" s="20"/>
     </row>
-    <row r="425" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="425" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G425" s="20"/>
     </row>
-    <row r="426" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="426" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G426" s="20"/>
     </row>
-    <row r="427" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="427" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G427" s="20"/>
     </row>
-    <row r="428" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="428" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G428" s="20"/>
     </row>
-    <row r="429" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="429" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G429" s="20"/>
     </row>
-    <row r="430" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="430" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G430" s="20"/>
     </row>
-    <row r="431" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="431" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G431" s="20"/>
     </row>
-    <row r="432" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="432" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G432" s="20"/>
     </row>
-    <row r="433" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="433" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G433" s="20"/>
     </row>
-    <row r="434" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="434" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G434" s="20"/>
     </row>
-    <row r="435" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="435" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G435" s="20"/>
     </row>
-    <row r="436" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="436" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G436" s="20"/>
     </row>
-    <row r="437" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="437" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G437" s="20"/>
     </row>
-    <row r="438" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="438" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G438" s="20"/>
     </row>
-    <row r="439" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="439" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G439" s="20"/>
     </row>
-    <row r="440" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="440" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G440" s="20"/>
     </row>
-    <row r="441" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="441" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G441" s="20"/>
     </row>
-    <row r="442" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="442" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G442" s="20"/>
     </row>
-    <row r="443" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="443" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G443" s="20"/>
     </row>
-    <row r="444" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="444" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G444" s="20"/>
     </row>
-    <row r="445" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="445" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G445" s="20"/>
     </row>
-    <row r="446" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="446" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G446" s="20"/>
     </row>
-    <row r="447" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="447" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G447" s="20"/>
     </row>
-    <row r="448" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="448" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G448" s="20"/>
     </row>
-    <row r="449" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="449" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G449" s="20"/>
     </row>
-    <row r="450" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="450" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G450" s="20"/>
     </row>
-    <row r="451" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="451" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G451" s="20"/>
     </row>
-    <row r="452" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="452" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G452" s="20"/>
     </row>
-    <row r="453" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="453" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G453" s="20"/>
     </row>
-    <row r="454" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="454" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G454" s="20"/>
     </row>
-    <row r="455" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="455" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G455" s="20"/>
     </row>
-    <row r="456" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="456" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G456" s="20"/>
     </row>
-    <row r="457" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="457" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G457" s="20"/>
     </row>
-    <row r="458" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="458" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G458" s="20"/>
     </row>
-    <row r="459" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="459" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G459" s="20"/>
     </row>
-    <row r="460" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="460" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G460" s="20"/>
     </row>
-    <row r="461" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="461" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G461" s="20"/>
     </row>
-    <row r="462" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="462" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G462" s="20"/>
     </row>
-    <row r="463" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="463" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G463" s="20"/>
     </row>
-    <row r="464" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="464" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G464" s="20"/>
     </row>
-    <row r="465" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="465" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G465" s="20"/>
     </row>
-    <row r="466" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="466" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G466" s="20"/>
     </row>
-    <row r="467" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="467" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G467" s="20"/>
     </row>
-    <row r="468" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="468" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G468" s="20"/>
     </row>
-    <row r="469" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="469" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G469" s="20"/>
     </row>
-    <row r="470" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="470" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G470" s="20"/>
     </row>
-    <row r="471" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="471" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G471" s="20"/>
     </row>
-    <row r="472" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="472" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G472" s="20"/>
     </row>
-    <row r="473" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="473" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G473" s="20"/>
     </row>
-    <row r="474" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="474" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G474" s="20"/>
     </row>
-    <row r="475" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="475" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G475" s="20"/>
     </row>
-    <row r="476" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="476" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G476" s="20"/>
     </row>
-    <row r="477" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="477" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G477" s="20"/>
     </row>
-    <row r="478" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="478" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G478" s="20"/>
     </row>
-    <row r="479" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="479" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G479" s="20"/>
     </row>
-    <row r="480" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="480" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G480" s="20"/>
     </row>
-    <row r="481" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="481" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G481" s="20"/>
     </row>
-    <row r="482" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="482" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G482" s="20"/>
     </row>
-    <row r="483" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="483" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G483" s="20"/>
     </row>
-    <row r="484" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="484" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G484" s="20"/>
     </row>
-    <row r="485" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="485" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G485" s="20"/>
     </row>
-    <row r="486" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="486" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G486" s="20"/>
     </row>
-    <row r="487" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="487" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G487" s="20"/>
     </row>
-    <row r="488" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="488" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G488" s="20"/>
     </row>
-    <row r="489" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="489" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G489" s="20"/>
     </row>
-    <row r="490" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="490" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G490" s="20"/>
     </row>
-    <row r="491" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="491" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G491" s="20"/>
     </row>
-    <row r="492" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="492" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G492" s="20"/>
     </row>
-    <row r="493" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="493" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G493" s="20"/>
     </row>
-    <row r="494" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="494" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G494" s="20"/>
     </row>
-    <row r="495" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="495" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G495" s="20"/>
     </row>
-    <row r="496" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="496" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G496" s="20"/>
     </row>
-    <row r="497" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="497" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G497" s="20"/>
     </row>
-    <row r="498" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="498" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G498" s="20"/>
     </row>
-    <row r="499" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="499" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G499" s="20"/>
     </row>
-    <row r="500" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="500" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G500" s="20"/>
     </row>
-    <row r="501" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="501" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G501" s="20"/>
     </row>
-    <row r="502" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="502" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G502" s="20"/>
     </row>
-    <row r="503" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="503" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G503" s="20"/>
     </row>
-    <row r="504" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="504" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G504" s="20"/>
     </row>
-    <row r="505" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="505" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G505" s="20"/>
     </row>
-    <row r="506" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="506" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G506" s="20"/>
     </row>
-    <row r="507" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="507" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G507" s="20"/>
     </row>
-    <row r="508" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="508" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G508" s="20"/>
     </row>
-    <row r="509" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="509" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G509" s="20"/>
     </row>
-    <row r="510" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="510" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G510" s="20"/>
     </row>
-    <row r="511" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="511" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G511" s="20"/>
     </row>
-    <row r="512" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="512" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G512" s="20"/>
     </row>
-    <row r="513" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="513" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G513" s="20"/>
     </row>
-    <row r="514" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="514" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G514" s="20"/>
     </row>
-    <row r="515" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="515" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G515" s="20"/>
     </row>
-    <row r="516" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="516" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G516" s="20"/>
     </row>
-    <row r="517" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="517" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G517" s="20"/>
     </row>
-    <row r="518" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="518" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G518" s="20"/>
     </row>
-    <row r="519" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="519" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G519" s="20"/>
     </row>
-    <row r="520" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="520" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G520" s="20"/>
     </row>
-    <row r="521" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="521" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G521" s="20"/>
     </row>
-    <row r="522" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="522" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G522" s="20"/>
     </row>
-    <row r="523" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="523" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G523" s="20"/>
     </row>
-    <row r="524" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="524" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G524" s="20"/>
     </row>
-    <row r="525" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="525" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G525" s="20"/>
     </row>
-    <row r="526" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="526" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G526" s="20"/>
     </row>
-    <row r="527" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="527" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G527" s="20"/>
     </row>
-    <row r="528" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="528" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G528" s="20"/>
     </row>
-    <row r="529" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="529" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G529" s="20"/>
     </row>
-    <row r="530" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="530" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G530" s="20"/>
     </row>
-    <row r="531" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="531" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G531" s="20"/>
     </row>
-    <row r="532" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="532" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G532" s="20"/>
     </row>
-    <row r="533" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="533" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G533" s="20"/>
     </row>
-    <row r="534" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="534" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G534" s="20"/>
     </row>
-    <row r="535" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="535" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G535" s="20"/>
     </row>
-    <row r="536" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="536" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G536" s="20"/>
     </row>
-    <row r="537" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="537" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G537" s="20"/>
     </row>
-    <row r="538" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="538" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G538" s="20"/>
     </row>
-    <row r="539" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="539" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G539" s="20"/>
     </row>
-    <row r="540" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="540" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G540" s="20"/>
     </row>
-    <row r="541" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="541" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G541" s="20"/>
     </row>
-    <row r="542" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="542" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G542" s="20"/>
     </row>
-    <row r="543" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="543" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G543" s="20"/>
     </row>
-    <row r="544" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="544" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G544" s="20"/>
     </row>
-    <row r="545" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="545" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G545" s="20"/>
     </row>
-    <row r="546" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="546" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G546" s="20"/>
     </row>
-    <row r="547" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="547" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G547" s="20"/>
     </row>
-    <row r="548" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="548" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G548" s="20"/>
     </row>
-    <row r="549" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="549" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G549" s="20"/>
     </row>
-    <row r="550" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="550" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G550" s="20"/>
     </row>
-    <row r="551" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="551" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G551" s="20"/>
     </row>
-    <row r="552" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="552" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G552" s="20"/>
     </row>
-    <row r="553" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="553" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G553" s="20"/>
     </row>
-    <row r="554" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="554" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G554" s="20"/>
     </row>
-    <row r="555" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="555" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G555" s="20"/>
     </row>
-    <row r="556" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="556" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G556" s="20"/>
     </row>
-    <row r="557" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="557" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G557" s="20"/>
     </row>
-    <row r="558" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="558" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G558" s="20"/>
     </row>
-    <row r="559" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="559" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G559" s="20"/>
     </row>
-    <row r="560" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="560" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G560" s="20"/>
     </row>
-    <row r="561" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="561" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G561" s="20"/>
     </row>
-    <row r="562" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="562" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G562" s="20"/>
     </row>
-    <row r="563" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="563" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G563" s="20"/>
     </row>
-    <row r="564" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="564" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G564" s="20"/>
     </row>
-    <row r="565" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="565" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G565" s="20"/>
     </row>
-    <row r="566" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="566" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G566" s="20"/>
     </row>
-    <row r="567" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="567" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G567" s="20"/>
     </row>
-    <row r="568" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="568" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G568" s="20"/>
     </row>
-    <row r="569" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="569" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G569" s="20"/>
     </row>
-    <row r="570" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="570" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G570" s="20"/>
     </row>
-    <row r="571" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="571" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G571" s="20"/>
     </row>
-    <row r="572" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="572" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G572" s="20"/>
     </row>
-    <row r="573" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="573" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G573" s="20"/>
     </row>
-    <row r="574" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="574" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G574" s="20"/>
     </row>
-    <row r="575" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="575" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G575" s="20"/>
     </row>
-    <row r="576" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="576" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G576" s="20"/>
     </row>
-    <row r="577" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="577" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G577" s="20"/>
     </row>
-    <row r="578" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="578" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G578" s="20"/>
     </row>
-    <row r="579" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="579" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G579" s="20"/>
     </row>
-    <row r="580" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="580" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G580" s="20"/>
     </row>
-    <row r="581" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="581" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G581" s="20"/>
     </row>
-    <row r="582" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="582" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G582" s="20"/>
     </row>
-    <row r="583" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="583" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G583" s="20"/>
     </row>
-    <row r="584" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="584" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G584" s="20"/>
     </row>
-    <row r="585" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="585" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G585" s="20"/>
     </row>
-    <row r="586" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="586" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G586" s="20"/>
     </row>
-    <row r="587" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="587" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G587" s="20"/>
     </row>
-    <row r="588" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="588" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G588" s="20"/>
     </row>
-    <row r="589" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="589" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G589" s="20"/>
     </row>
-    <row r="590" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="590" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G590" s="20"/>
     </row>
-    <row r="591" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="591" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G591" s="20"/>
     </row>
-    <row r="592" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="592" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G592" s="20"/>
     </row>
-    <row r="593" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="593" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G593" s="20"/>
     </row>
-    <row r="594" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="594" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G594" s="20"/>
     </row>
-    <row r="595" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="595" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G595" s="20"/>
     </row>
-    <row r="596" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="596" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G596" s="20"/>
     </row>
-    <row r="597" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="597" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G597" s="20"/>
     </row>
-    <row r="598" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="598" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G598" s="20"/>
     </row>
-    <row r="599" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="599" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G599" s="20"/>
     </row>
-    <row r="600" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="600" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G600" s="20"/>
     </row>
-    <row r="601" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="601" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G601" s="20"/>
     </row>
-    <row r="602" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="602" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G602" s="20"/>
     </row>
-    <row r="603" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="603" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G603" s="20"/>
     </row>
-    <row r="604" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="604" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G604" s="20"/>
     </row>
-    <row r="605" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="605" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G605" s="20"/>
     </row>
-    <row r="606" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="606" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G606" s="20"/>
     </row>
-    <row r="607" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="607" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G607" s="20"/>
     </row>
-    <row r="608" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="608" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G608" s="20"/>
     </row>
-    <row r="609" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="609" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G609" s="20"/>
     </row>
-    <row r="610" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="610" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G610" s="20"/>
     </row>
-    <row r="611" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="611" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G611" s="20"/>
     </row>
-    <row r="612" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="612" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G612" s="20"/>
     </row>
-    <row r="613" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="613" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G613" s="20"/>
     </row>
-    <row r="614" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="614" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G614" s="20"/>
     </row>
-    <row r="615" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="615" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G615" s="20"/>
     </row>
-    <row r="616" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="616" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G616" s="20"/>
     </row>
-    <row r="617" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="617" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G617" s="20"/>
     </row>
-    <row r="618" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="618" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G618" s="20"/>
     </row>
-    <row r="619" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="619" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G619" s="20"/>
     </row>
-    <row r="620" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="620" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G620" s="20"/>
     </row>
-    <row r="621" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="621" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G621" s="20"/>
     </row>
-    <row r="622" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="622" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G622" s="20"/>
     </row>
-    <row r="623" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="623" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G623" s="20"/>
     </row>
-    <row r="624" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="624" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G624" s="20"/>
     </row>
-    <row r="625" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="625" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G625" s="20"/>
     </row>
-    <row r="626" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="626" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G626" s="20"/>
     </row>
-    <row r="627" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="627" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G627" s="20"/>
     </row>
-    <row r="628" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="628" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G628" s="20"/>
     </row>
-    <row r="629" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="629" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G629" s="20"/>
     </row>
-    <row r="630" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="630" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G630" s="20"/>
     </row>
-    <row r="631" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="631" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G631" s="20"/>
     </row>
-    <row r="632" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="632" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G632" s="20"/>
     </row>
-    <row r="633" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="633" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G633" s="20"/>
     </row>
-    <row r="634" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="634" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G634" s="20"/>
     </row>
-    <row r="635" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="635" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G635" s="20"/>
     </row>
-    <row r="636" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="636" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G636" s="20"/>
     </row>
-    <row r="637" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="637" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G637" s="20"/>
     </row>
-    <row r="638" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="638" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G638" s="20"/>
     </row>
-    <row r="639" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="639" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G639" s="20"/>
     </row>
-    <row r="640" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="640" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G640" s="20"/>
     </row>
-    <row r="641" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="641" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G641" s="20"/>
     </row>
-    <row r="642" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="642" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G642" s="20"/>
     </row>
-    <row r="643" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="643" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G643" s="20"/>
     </row>
-    <row r="644" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="644" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G644" s="20"/>
     </row>
-    <row r="645" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="645" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G645" s="20"/>
     </row>
-    <row r="646" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="646" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G646" s="20"/>
     </row>
-    <row r="647" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="647" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G647" s="20"/>
     </row>
-    <row r="648" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="648" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G648" s="20"/>
     </row>
-    <row r="649" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="649" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G649" s="20"/>
     </row>
-    <row r="650" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="650" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G650" s="20"/>
     </row>
-    <row r="651" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="651" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G651" s="20"/>
     </row>
-    <row r="652" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="652" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G652" s="20"/>
     </row>
-    <row r="653" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="653" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G653" s="20"/>
     </row>
-    <row r="654" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="654" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G654" s="20"/>
     </row>
-    <row r="655" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="655" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G655" s="20"/>
     </row>
-    <row r="656" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="656" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G656" s="20"/>
     </row>
-    <row r="657" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="657" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G657" s="20"/>
     </row>
-    <row r="658" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="658" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G658" s="20"/>
     </row>
-    <row r="659" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="659" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G659" s="20"/>
     </row>
-    <row r="660" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="660" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G660" s="20"/>
     </row>
-    <row r="661" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="661" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G661" s="20"/>
     </row>
-    <row r="662" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="662" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G662" s="20"/>
     </row>
-    <row r="663" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="663" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G663" s="20"/>
     </row>
-    <row r="664" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="664" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G664" s="20"/>
     </row>
-    <row r="665" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="665" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G665" s="20"/>
     </row>
-    <row r="666" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="666" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G666" s="20"/>
     </row>
-    <row r="667" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="667" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G667" s="20"/>
     </row>
-    <row r="668" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="668" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G668" s="20"/>
     </row>
-    <row r="669" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="669" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G669" s="20"/>
     </row>
-    <row r="670" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="670" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G670" s="20"/>
     </row>
-    <row r="671" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="671" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G671" s="20"/>
     </row>
-    <row r="672" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="672" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G672" s="20"/>
     </row>
-    <row r="673" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="673" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G673" s="20"/>
     </row>
-    <row r="674" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="674" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G674" s="20"/>
     </row>
-    <row r="675" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="675" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G675" s="20"/>
     </row>
-    <row r="676" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="676" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G676" s="20"/>
     </row>
-    <row r="677" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="677" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G677" s="20"/>
     </row>
-    <row r="678" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="678" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G678" s="20"/>
     </row>
-    <row r="679" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="679" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G679" s="20"/>
     </row>
-    <row r="680" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="680" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G680" s="20"/>
     </row>
-    <row r="681" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="681" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G681" s="20"/>
     </row>
-    <row r="682" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="682" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G682" s="20"/>
     </row>
-    <row r="683" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="683" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G683" s="20"/>
     </row>
-    <row r="684" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="684" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G684" s="20"/>
     </row>
-    <row r="685" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="685" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G685" s="20"/>
     </row>
-    <row r="686" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="686" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G686" s="20"/>
     </row>
-    <row r="687" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="687" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G687" s="20"/>
     </row>
-    <row r="688" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="688" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G688" s="20"/>
     </row>
-    <row r="689" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="689" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G689" s="20"/>
     </row>
-    <row r="690" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="690" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G690" s="20"/>
     </row>
-    <row r="691" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="691" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G691" s="20"/>
     </row>
-    <row r="692" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="692" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G692" s="20"/>
     </row>
-    <row r="693" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="693" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G693" s="20"/>
     </row>
-    <row r="694" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="694" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G694" s="20"/>
     </row>
-    <row r="695" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="695" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G695" s="20"/>
     </row>
-    <row r="696" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="696" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G696" s="20"/>
     </row>
-    <row r="697" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="697" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G697" s="20"/>
     </row>
-    <row r="698" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="698" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G698" s="20"/>
     </row>
-    <row r="699" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="699" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G699" s="20"/>
     </row>
-    <row r="700" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="700" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G700" s="20"/>
     </row>
-    <row r="701" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="701" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G701" s="20"/>
     </row>
-    <row r="702" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="702" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G702" s="20"/>
     </row>
-    <row r="703" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="703" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G703" s="20"/>
     </row>
-    <row r="704" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="704" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G704" s="20"/>
     </row>
-    <row r="705" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="705" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G705" s="20"/>
     </row>
-    <row r="706" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="706" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G706" s="20"/>
     </row>
-    <row r="707" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="707" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G707" s="20"/>
     </row>
-    <row r="708" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="708" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G708" s="20"/>
     </row>
-    <row r="709" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="709" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G709" s="20"/>
     </row>
-    <row r="710" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="710" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G710" s="20"/>
     </row>
-    <row r="711" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="711" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G711" s="20"/>
     </row>
-    <row r="712" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="712" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G712" s="20"/>
     </row>
-    <row r="713" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="713" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G713" s="20"/>
     </row>
-    <row r="714" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="714" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G714" s="20"/>
     </row>
-    <row r="715" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="715" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G715" s="20"/>
     </row>
-    <row r="716" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="716" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G716" s="20"/>
     </row>
-    <row r="717" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="717" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G717" s="20"/>
     </row>
-    <row r="718" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="718" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G718" s="20"/>
     </row>
-    <row r="719" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="719" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G719" s="20"/>
     </row>
-    <row r="720" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="720" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G720" s="20"/>
     </row>
-    <row r="721" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="721" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G721" s="20"/>
     </row>
-    <row r="722" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="722" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G722" s="20"/>
     </row>
-    <row r="723" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="723" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G723" s="20"/>
     </row>
-    <row r="724" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="724" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G724" s="20"/>
     </row>
-    <row r="725" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="725" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G725" s="20"/>
     </row>
-    <row r="726" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="726" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G726" s="20"/>
     </row>
-    <row r="727" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="727" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G727" s="20"/>
     </row>
-    <row r="728" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="728" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G728" s="20"/>
     </row>
-    <row r="729" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="729" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G729" s="20"/>
     </row>
-    <row r="730" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="730" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G730" s="20"/>
     </row>
-    <row r="731" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="731" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G731" s="20"/>
     </row>
-    <row r="732" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="732" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G732" s="20"/>
     </row>
-    <row r="733" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="733" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G733" s="20"/>
     </row>
-    <row r="734" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="734" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G734" s="20"/>
     </row>
-    <row r="735" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="735" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G735" s="20"/>
     </row>
-    <row r="736" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="736" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G736" s="20"/>
     </row>
-    <row r="737" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="737" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G737" s="20"/>
     </row>
-    <row r="738" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="738" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G738" s="20"/>
     </row>
-    <row r="739" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="739" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G739" s="20"/>
     </row>
-    <row r="740" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="740" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G740" s="20"/>
     </row>
-    <row r="741" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="741" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G741" s="20"/>
     </row>
-    <row r="742" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="742" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G742" s="20"/>
     </row>
-    <row r="743" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="743" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G743" s="20"/>
     </row>
-    <row r="744" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="744" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G744" s="20"/>
     </row>
-    <row r="745" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="745" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G745" s="20"/>
     </row>
-    <row r="746" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="746" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G746" s="20"/>
     </row>
-    <row r="747" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="747" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G747" s="20"/>
     </row>
-    <row r="748" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="748" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G748" s="20"/>
     </row>
-    <row r="749" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="749" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G749" s="20"/>
     </row>
-    <row r="750" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="750" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G750" s="20"/>
     </row>
-    <row r="751" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="751" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G751" s="20"/>
     </row>
-    <row r="752" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="752" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G752" s="20"/>
     </row>
-    <row r="753" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="753" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G753" s="20"/>
     </row>
-    <row r="754" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="754" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G754" s="20"/>
     </row>
-    <row r="755" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="755" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G755" s="20"/>
     </row>
-    <row r="756" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="756" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G756" s="20"/>
     </row>
-    <row r="757" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="757" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G757" s="20"/>
     </row>
-    <row r="758" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="758" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G758" s="20"/>
     </row>
-    <row r="759" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="759" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G759" s="20"/>
     </row>
-    <row r="760" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="760" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G760" s="20"/>
     </row>
-    <row r="761" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="761" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G761" s="20"/>
     </row>
-    <row r="762" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="762" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G762" s="20"/>
     </row>
-    <row r="763" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="763" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G763" s="20"/>
     </row>
-    <row r="764" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="764" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G764" s="20"/>
     </row>
-    <row r="765" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="765" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G765" s="20"/>
     </row>
-    <row r="766" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="766" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G766" s="20"/>
     </row>
-    <row r="767" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="767" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G767" s="20"/>
     </row>
-    <row r="768" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="768" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G768" s="20"/>
     </row>
-    <row r="769" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="769" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G769" s="20"/>
     </row>
-    <row r="770" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="770" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G770" s="20"/>
     </row>
-    <row r="771" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="771" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G771" s="20"/>
     </row>
-    <row r="772" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="772" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G772" s="20"/>
     </row>
-    <row r="773" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="773" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G773" s="20"/>
     </row>
-    <row r="774" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="774" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G774" s="20"/>
     </row>
-    <row r="775" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="775" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G775" s="20"/>
     </row>
-    <row r="776" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="776" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G776" s="20"/>
     </row>
-    <row r="777" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="777" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G777" s="20"/>
     </row>
-    <row r="778" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="778" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G778" s="20"/>
     </row>
-    <row r="779" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="779" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G779" s="20"/>
     </row>
-    <row r="780" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="780" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G780" s="20"/>
     </row>
-    <row r="781" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="781" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G781" s="20"/>
     </row>
-    <row r="782" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="782" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G782" s="20"/>
     </row>
-    <row r="783" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="783" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G783" s="20"/>
     </row>
-    <row r="784" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="784" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G784" s="20"/>
     </row>
-    <row r="785" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="785" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G785" s="20"/>
     </row>
-    <row r="786" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="786" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G786" s="20"/>
     </row>
-    <row r="787" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="787" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G787" s="20"/>
     </row>
-    <row r="788" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="788" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G788" s="20"/>
     </row>
-    <row r="789" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="789" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G789" s="20"/>
     </row>
-    <row r="790" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="790" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G790" s="20"/>
     </row>
-    <row r="791" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="791" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G791" s="20"/>
     </row>
-    <row r="792" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="792" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G792" s="20"/>
     </row>
-    <row r="793" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="793" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G793" s="20"/>
     </row>
-    <row r="794" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="794" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G794" s="20"/>
     </row>
-    <row r="795" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="795" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G795" s="20"/>
     </row>
-    <row r="796" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="796" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G796" s="20"/>
     </row>
-    <row r="797" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="797" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G797" s="20"/>
     </row>
-    <row r="798" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="798" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G798" s="20"/>
     </row>
-    <row r="799" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="799" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G799" s="20"/>
     </row>
-    <row r="800" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="800" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G800" s="20"/>
     </row>
-    <row r="801" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="801" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G801" s="20"/>
     </row>
-    <row r="802" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="802" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G802" s="20"/>
     </row>
-    <row r="803" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="803" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G803" s="20"/>
     </row>
-    <row r="804" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="804" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G804" s="20"/>
     </row>
-    <row r="805" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="805" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G805" s="20"/>
     </row>
-    <row r="806" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="806" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G806" s="20"/>
     </row>
-    <row r="807" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="807" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G807" s="20"/>
     </row>
-    <row r="808" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="808" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G808" s="20"/>
     </row>
-    <row r="809" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="809" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G809" s="20"/>
     </row>
-    <row r="810" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="810" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G810" s="20"/>
     </row>
-    <row r="811" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="811" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G811" s="20"/>
     </row>
-    <row r="812" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="812" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G812" s="20"/>
     </row>
-    <row r="813" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="813" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G813" s="20"/>
     </row>
-    <row r="814" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="814" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G814" s="20"/>
     </row>
-    <row r="815" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="815" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G815" s="20"/>
     </row>
-    <row r="816" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="816" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G816" s="20"/>
     </row>
-    <row r="817" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="817" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G817" s="20"/>
     </row>
-    <row r="818" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="818" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G818" s="20"/>
     </row>
-    <row r="819" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="819" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G819" s="20"/>
     </row>
-    <row r="820" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="820" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G820" s="20"/>
     </row>
-    <row r="821" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="821" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G821" s="20"/>
     </row>
-    <row r="822" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="822" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G822" s="20"/>
     </row>
-    <row r="823" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="823" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G823" s="20"/>
     </row>
-    <row r="824" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="824" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G824" s="20"/>
     </row>
-    <row r="825" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="825" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G825" s="20"/>
     </row>
-    <row r="826" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="826" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G826" s="20"/>
     </row>
-    <row r="827" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="827" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G827" s="20"/>
     </row>
-    <row r="828" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="828" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G828" s="20"/>
     </row>
-    <row r="829" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="829" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G829" s="20"/>
     </row>
-    <row r="830" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="830" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G830" s="20"/>
     </row>
-    <row r="831" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="831" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G831" s="20"/>
     </row>
-    <row r="832" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="832" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G832" s="20"/>
     </row>
-    <row r="833" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="833" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G833" s="20"/>
     </row>
-    <row r="834" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="834" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G834" s="20"/>
     </row>
-    <row r="835" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="835" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G835" s="20"/>
     </row>
-    <row r="836" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="836" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G836" s="20"/>
     </row>
-    <row r="837" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="837" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G837" s="20"/>
     </row>
-    <row r="838" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="838" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G838" s="20"/>
     </row>
-    <row r="839" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="839" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G839" s="20"/>
     </row>
-    <row r="840" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="840" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G840" s="20"/>
     </row>
-    <row r="841" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="841" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G841" s="20"/>
     </row>
-    <row r="842" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="842" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G842" s="20"/>
     </row>
-    <row r="843" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="843" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G843" s="20"/>
     </row>
-    <row r="844" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="844" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G844" s="20"/>
     </row>
-    <row r="845" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="845" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G845" s="20"/>
     </row>
-    <row r="846" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="846" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G846" s="20"/>
     </row>
-    <row r="847" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="847" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G847" s="20"/>
     </row>
-    <row r="848" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="848" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G848" s="20"/>
     </row>
-    <row r="849" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="849" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G849" s="20"/>
     </row>
-    <row r="850" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="850" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G850" s="20"/>
     </row>
-    <row r="851" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="851" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G851" s="20"/>
     </row>
-    <row r="852" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="852" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G852" s="20"/>
     </row>
-    <row r="853" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="853" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G853" s="20"/>
     </row>
-    <row r="854" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="854" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G854" s="20"/>
     </row>
-    <row r="855" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="855" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G855" s="20"/>
     </row>
-    <row r="856" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="856" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G856" s="20"/>
     </row>
-    <row r="857" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="857" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G857" s="20"/>
     </row>
-    <row r="858" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="858" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G858" s="20"/>
     </row>
-    <row r="859" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="859" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G859" s="20"/>
     </row>
-    <row r="860" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="860" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G860" s="20"/>
     </row>
-    <row r="861" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="861" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G861" s="20"/>
     </row>
-    <row r="862" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="862" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G862" s="20"/>
     </row>
-    <row r="863" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="863" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G863" s="20"/>
     </row>
-    <row r="864" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="864" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G864" s="20"/>
     </row>
-    <row r="865" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="865" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G865" s="20"/>
     </row>
-    <row r="866" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="866" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G866" s="20"/>
     </row>
-    <row r="867" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="867" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G867" s="20"/>
     </row>
-    <row r="868" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="868" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G868" s="20"/>
     </row>
-    <row r="869" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="869" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G869" s="20"/>
     </row>
-    <row r="870" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="870" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G870" s="20"/>
     </row>
-    <row r="871" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="871" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G871" s="20"/>
     </row>
-    <row r="872" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="872" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G872" s="20"/>
     </row>
-    <row r="873" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="873" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G873" s="20"/>
     </row>
-    <row r="874" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="874" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G874" s="20"/>
     </row>
-    <row r="875" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="875" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G875" s="20"/>
     </row>
-    <row r="876" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="876" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G876" s="20"/>
     </row>
-    <row r="877" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="877" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G877" s="20"/>
     </row>
-    <row r="878" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="878" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G878" s="20"/>
     </row>
-    <row r="879" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="879" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G879" s="20"/>
     </row>
-    <row r="880" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="880" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G880" s="20"/>
     </row>
-    <row r="881" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="881" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G881" s="20"/>
     </row>
-    <row r="882" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="882" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G882" s="20"/>
     </row>
-    <row r="883" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="883" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G883" s="20"/>
     </row>
-    <row r="884" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="884" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G884" s="20"/>
     </row>
-    <row r="885" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="885" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G885" s="20"/>
     </row>
-    <row r="886" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="886" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G886" s="20"/>
     </row>
-    <row r="887" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="887" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G887" s="20"/>
     </row>
-    <row r="888" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="888" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G888" s="20"/>
     </row>
-    <row r="889" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="889" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G889" s="20"/>
     </row>
-    <row r="890" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="890" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G890" s="20"/>
     </row>
-    <row r="891" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="891" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G891" s="20"/>
     </row>
-    <row r="892" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="892" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G892" s="20"/>
     </row>
-    <row r="893" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="893" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G893" s="20"/>
     </row>
-    <row r="894" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="894" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G894" s="20"/>
     </row>
-    <row r="895" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="895" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G895" s="20"/>
     </row>
-    <row r="896" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="896" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G896" s="20"/>
     </row>
-    <row r="897" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="897" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G897" s="20"/>
     </row>
-    <row r="898" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="898" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G898" s="20"/>
     </row>
-    <row r="899" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="899" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G899" s="20"/>
     </row>
-    <row r="900" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="900" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G900" s="20"/>
     </row>
-    <row r="901" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="901" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G901" s="20"/>
     </row>
-    <row r="902" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="902" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G902" s="20"/>
     </row>
-    <row r="903" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="903" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G903" s="20"/>
     </row>
-    <row r="904" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="904" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G904" s="20"/>
     </row>
-    <row r="905" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="905" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G905" s="20"/>
     </row>
-    <row r="906" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="906" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G906" s="20"/>
     </row>
-    <row r="907" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="907" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G907" s="20"/>
     </row>
-    <row r="908" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="908" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G908" s="20"/>
     </row>
-    <row r="909" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="909" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G909" s="20"/>
     </row>
-    <row r="910" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="910" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G910" s="20"/>
     </row>
-    <row r="911" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="911" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G911" s="20"/>
     </row>
-    <row r="912" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="912" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G912" s="20"/>
     </row>
-    <row r="913" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="913" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G913" s="20"/>
     </row>
-    <row r="914" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="914" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G914" s="20"/>
     </row>
-    <row r="915" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="915" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G915" s="20"/>
     </row>
-    <row r="916" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="916" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G916" s="20"/>
     </row>
-    <row r="917" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="917" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G917" s="20"/>
     </row>
-    <row r="918" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="918" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G918" s="20"/>
     </row>
-    <row r="919" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="919" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G919" s="20"/>
     </row>
-    <row r="920" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="920" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G920" s="20"/>
     </row>
-    <row r="921" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="921" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G921" s="20"/>
     </row>
-    <row r="922" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="922" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G922" s="20"/>
     </row>
-    <row r="923" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="923" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G923" s="20"/>
     </row>
-    <row r="924" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="924" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G924" s="20"/>
     </row>
-    <row r="925" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="925" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G925" s="20"/>
     </row>
-    <row r="926" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="926" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G926" s="20"/>
     </row>
-    <row r="927" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="927" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G927" s="20"/>
     </row>
-    <row r="928" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="928" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G928" s="20"/>
     </row>
-    <row r="929" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="929" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G929" s="20"/>
     </row>
-    <row r="930" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="930" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G930" s="20"/>
     </row>
-    <row r="931" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="931" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G931" s="20"/>
     </row>
-    <row r="932" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="932" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G932" s="20"/>
     </row>
-    <row r="933" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="933" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G933" s="20"/>
     </row>
-    <row r="934" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="934" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G934" s="20"/>
     </row>
-    <row r="935" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="935" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G935" s="20"/>
     </row>
-    <row r="936" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="936" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G936" s="20"/>
     </row>
-    <row r="937" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="937" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G937" s="20"/>
     </row>
-    <row r="938" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="938" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G938" s="20"/>
     </row>
-    <row r="939" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="939" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G939" s="20"/>
     </row>
-    <row r="940" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="940" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G940" s="20"/>
     </row>
-    <row r="941" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="941" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G941" s="20"/>
     </row>
-    <row r="942" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="942" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G942" s="20"/>
     </row>
-    <row r="943" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="943" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G943" s="20"/>
     </row>
-    <row r="944" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="944" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G944" s="20"/>
     </row>
-    <row r="945" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="945" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G945" s="20"/>
     </row>
-    <row r="946" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="946" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G946" s="20"/>
     </row>
-    <row r="947" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="947" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G947" s="20"/>
     </row>
-    <row r="948" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="948" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G948" s="20"/>
     </row>
-    <row r="949" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="949" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G949" s="20"/>
     </row>
-    <row r="950" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="950" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G950" s="20"/>
     </row>
-    <row r="951" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="951" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G951" s="20"/>
     </row>
-    <row r="952" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="952" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G952" s="20"/>
     </row>
-    <row r="953" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="953" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G953" s="20"/>
     </row>
-    <row r="954" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="954" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G954" s="20"/>
     </row>
-    <row r="955" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="955" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G955" s="20"/>
     </row>
-    <row r="956" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="956" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G956" s="20"/>
     </row>
-    <row r="957" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="957" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G957" s="20"/>
     </row>
-    <row r="958" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="958" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G958" s="20"/>
     </row>
-    <row r="959" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="959" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G959" s="20"/>
     </row>
-    <row r="960" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="960" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G960" s="20"/>
     </row>
-    <row r="961" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="961" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G961" s="20"/>
     </row>
-    <row r="962" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="962" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G962" s="20"/>
     </row>
-    <row r="963" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="963" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G963" s="20"/>
     </row>
-    <row r="964" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="964" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G964" s="20"/>
     </row>
-    <row r="965" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="965" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G965" s="20"/>
     </row>
-    <row r="966" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="966" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G966" s="20"/>
     </row>
-    <row r="967" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="967" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G967" s="20"/>
     </row>
-    <row r="968" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="968" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G968" s="20"/>
     </row>
-    <row r="969" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="969" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G969" s="20"/>
     </row>
-    <row r="970" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="970" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G970" s="20"/>
     </row>
-    <row r="971" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="971" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G971" s="20"/>
     </row>
-    <row r="972" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="972" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G972" s="20"/>
     </row>
-    <row r="973" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="973" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G973" s="20"/>
     </row>
-    <row r="974" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="974" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G974" s="20"/>
     </row>
-    <row r="975" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="975" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G975" s="20"/>
     </row>
-    <row r="976" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="976" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G976" s="20"/>
     </row>
-    <row r="977" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="977" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G977" s="20"/>
     </row>
-    <row r="978" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="978" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G978" s="20"/>
     </row>
-    <row r="979" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="979" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G979" s="20"/>
     </row>
-    <row r="980" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="980" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G980" s="20"/>
     </row>
-    <row r="981" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="981" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G981" s="20"/>
     </row>
-    <row r="982" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="982" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G982" s="20"/>
     </row>
-    <row r="983" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="983" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G983" s="20"/>
     </row>
-    <row r="984" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="984" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G984" s="20"/>
     </row>
-    <row r="985" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="985" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G985" s="20"/>
     </row>
-    <row r="986" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="986" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G986" s="20"/>
     </row>
-    <row r="987" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="987" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G987" s="20"/>
     </row>
-    <row r="988" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="988" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G988" s="20"/>
     </row>
-    <row r="989" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="989" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G989" s="20"/>
     </row>
-    <row r="990" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="990" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G990" s="20"/>
     </row>
-    <row r="991" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="991" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G991" s="20"/>
     </row>
-    <row r="992" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="992" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G992" s="20"/>
     </row>
-    <row r="993" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="993" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G993" s="20"/>
     </row>
-    <row r="994" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="994" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G994" s="20"/>
     </row>
-    <row r="995" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="995" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G995" s="20"/>
     </row>
-    <row r="996" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="996" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G996" s="20"/>
     </row>
-    <row r="997" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="997" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G997" s="20"/>
     </row>
-    <row r="998" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="998" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G998" s="20"/>
     </row>
-    <row r="999" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="999" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G999" s="20"/>
     </row>
-    <row r="1000" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1000" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1000" s="20"/>
     </row>
-    <row r="1001" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1001" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1001" s="20"/>
     </row>
-    <row r="1002" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1002" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1002" s="20"/>
     </row>
-    <row r="1003" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1003" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1003" s="20"/>
     </row>
-    <row r="1004" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1004" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1004" s="20"/>
     </row>
-    <row r="1005" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1005" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1005" s="20"/>
     </row>
-    <row r="1006" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1006" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1006" s="20"/>
     </row>
-    <row r="1007" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1007" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1007" s="20"/>
     </row>
-    <row r="1008" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1008" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1008" s="20"/>
     </row>
-    <row r="1009" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1009" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1009" s="20"/>
     </row>
-    <row r="1010" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1010" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1010" s="20"/>
     </row>
-    <row r="1011" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1011" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1011" s="20"/>
     </row>
-    <row r="1012" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1012" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1012" s="20"/>
     </row>
-    <row r="1013" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1013" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1013" s="20"/>
     </row>
-    <row r="1014" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1014" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1014" s="20"/>
     </row>
-    <row r="1015" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1015" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1015" s="20"/>
     </row>
-    <row r="1016" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1016" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1016" s="20"/>
     </row>
-    <row r="1017" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1017" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1017" s="20"/>
     </row>
-    <row r="1018" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1018" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1018" s="20"/>
     </row>
-    <row r="1019" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1019" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1019" s="20"/>
     </row>
-    <row r="1020" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1020" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1020" s="20"/>
     </row>
-    <row r="1021" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1021" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1021" s="20"/>
     </row>
-    <row r="1022" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1022" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1022" s="20"/>
     </row>
-    <row r="1023" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1023" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1023" s="20"/>
     </row>
-    <row r="1024" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1024" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1024" s="20"/>
     </row>
-    <row r="1025" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1025" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1025" s="20"/>
     </row>
-    <row r="1026" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1026" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1026" s="20"/>
     </row>
-    <row r="1027" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1027" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1027" s="20"/>
     </row>
-    <row r="1028" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1028" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1028" s="20"/>
     </row>
-    <row r="1029" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1029" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1029" s="20"/>
     </row>
-    <row r="1030" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1030" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1030" s="20"/>
     </row>
-    <row r="1031" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1031" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1031" s="20"/>
     </row>
-    <row r="1032" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1032" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1032" s="20"/>
     </row>
-    <row r="1033" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1033" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1033" s="20"/>
     </row>
-    <row r="1034" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1034" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1034" s="20"/>
     </row>
-    <row r="1035" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1035" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1035" s="20"/>
     </row>
-    <row r="1036" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1036" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1036" s="20"/>
     </row>
-    <row r="1037" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1037" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1037" s="20"/>
     </row>
-    <row r="1038" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1038" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1038" s="20"/>
     </row>
-    <row r="1039" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1039" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1039" s="20"/>
     </row>
-    <row r="1040" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1040" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1040" s="20"/>
     </row>
-    <row r="1041" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1041" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1041" s="20"/>
     </row>
-    <row r="1042" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1042" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1042" s="20"/>
     </row>
-    <row r="1043" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1043" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1043" s="20"/>
     </row>
-    <row r="1044" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1044" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1044" s="20"/>
     </row>
-    <row r="1045" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1045" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1045" s="20"/>
     </row>
-    <row r="1046" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1046" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1046" s="20"/>
     </row>
-    <row r="1047" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1047" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1047" s="20"/>
     </row>
-    <row r="1048" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1048" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1048" s="20"/>
     </row>
-    <row r="1049" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1049" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1049" s="20"/>
     </row>
-    <row r="1050" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1050" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1050" s="20"/>
     </row>
-    <row r="1051" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1051" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1051" s="20"/>
     </row>
-    <row r="1052" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1052" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1052" s="20"/>
     </row>
-    <row r="1053" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1053" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1053" s="20"/>
     </row>
-    <row r="1054" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1054" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1054" s="20"/>
     </row>
-    <row r="1055" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1055" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1055" s="20"/>
     </row>
-    <row r="1056" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1056" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1056" s="20"/>
     </row>
-    <row r="1057" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1057" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1057" s="20"/>
     </row>
-    <row r="1058" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1058" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1058" s="20"/>
     </row>
-    <row r="1059" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1059" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1059" s="20"/>
     </row>
-    <row r="1060" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1060" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1060" s="20"/>
     </row>
-    <row r="1061" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1061" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1061" s="20"/>
     </row>
-    <row r="1062" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1062" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1062" s="20"/>
     </row>
-    <row r="1063" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1063" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1063" s="20"/>
     </row>
-    <row r="1064" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1064" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1064" s="20"/>
     </row>
-    <row r="1065" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1065" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1065" s="20"/>
     </row>
-    <row r="1066" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1066" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1066" s="20"/>
     </row>
-    <row r="1067" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1067" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1067" s="20"/>
     </row>
-    <row r="1068" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1068" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1068" s="20"/>
     </row>
-    <row r="1069" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1069" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1069" s="20"/>
     </row>
-    <row r="1070" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1070" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1070" s="20"/>
     </row>
-    <row r="1071" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1071" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1071" s="20"/>
     </row>
-    <row r="1072" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1072" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1072" s="20"/>
     </row>
-    <row r="1073" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1073" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1073" s="20"/>
     </row>
-    <row r="1074" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1074" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1074" s="20"/>
     </row>
-    <row r="1075" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1075" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1075" s="20"/>
     </row>
-    <row r="1076" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1076" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1076" s="20"/>
     </row>
-    <row r="1077" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1077" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1077" s="20"/>
     </row>
-    <row r="1078" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1078" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1078" s="20"/>
     </row>
-    <row r="1079" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1079" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1079" s="20"/>
     </row>
-    <row r="1080" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1080" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1080" s="20"/>
     </row>
-    <row r="1081" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1081" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1081" s="20"/>
     </row>
-    <row r="1082" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1082" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1082" s="20"/>
     </row>
-    <row r="1083" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1083" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1083" s="20"/>
     </row>
-    <row r="1084" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1084" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1084" s="20"/>
     </row>
-    <row r="1085" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1085" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1085" s="20"/>
     </row>
-    <row r="1086" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1086" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1086" s="20"/>
     </row>
-    <row r="1087" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1087" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1087" s="20"/>
     </row>
-    <row r="1088" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1088" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1088" s="20"/>
     </row>
-    <row r="1089" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1089" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1089" s="20"/>
     </row>
-    <row r="1090" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1090" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1090" s="20"/>
     </row>
-    <row r="1091" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1091" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1091" s="20"/>
     </row>
-    <row r="1092" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1092" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1092" s="20"/>
     </row>
-    <row r="1093" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1093" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1093" s="20"/>
     </row>
-    <row r="1094" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1094" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1094" s="20"/>
     </row>
-    <row r="1095" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1095" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1095" s="20"/>
     </row>
-    <row r="1096" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1096" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1096" s="20"/>
     </row>
-    <row r="1097" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1097" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1097" s="20"/>
     </row>
-    <row r="1098" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1098" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1098" s="20"/>
     </row>
-    <row r="1099" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1099" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1099" s="20"/>
     </row>
-    <row r="1100" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1100" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1100" s="20"/>
     </row>
-    <row r="1101" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1101" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1101" s="20"/>
     </row>
-    <row r="1102" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1102" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1102" s="20"/>
     </row>
-    <row r="1103" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1103" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1103" s="20"/>
     </row>
-    <row r="1104" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1104" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1104" s="20"/>
     </row>
-    <row r="1105" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1105" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1105" s="20"/>
     </row>
-    <row r="1106" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1106" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1106" s="20"/>
     </row>
-    <row r="1107" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1107" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1107" s="20"/>
     </row>
-    <row r="1108" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1108" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1108" s="20"/>
     </row>
-    <row r="1109" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1109" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1109" s="20"/>
     </row>
-    <row r="1110" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1110" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1110" s="20"/>
     </row>
-    <row r="1111" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1111" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1111" s="20"/>
     </row>
-    <row r="1112" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1112" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1112" s="20"/>
     </row>
-    <row r="1113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1113" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1113" s="20"/>
     </row>
-    <row r="1114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1114" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1114" s="20"/>
     </row>
-    <row r="1115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1115" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1115" s="20"/>
     </row>
-    <row r="1116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1116" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1116" s="20"/>
     </row>
-    <row r="1117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1117" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1117" s="20"/>
     </row>
-    <row r="1118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1118" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1118" s="20"/>
     </row>
-    <row r="1119" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1119" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1119" s="20"/>
     </row>
-    <row r="1120" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1120" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1120" s="20"/>
     </row>
-    <row r="1121" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1121" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1121" s="20"/>
     </row>
-    <row r="1122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1122" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1122" s="20"/>
     </row>
-    <row r="1123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1123" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1123" s="20"/>
     </row>
-    <row r="1124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1124" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1124" s="20"/>
     </row>
-    <row r="1125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1125" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1125" s="20"/>
     </row>
-    <row r="1126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1126" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1126" s="20"/>
     </row>
-    <row r="1127" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1127" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1127" s="20"/>
     </row>
-    <row r="1128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1128" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1128" s="20"/>
     </row>
-    <row r="1129" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1129" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1129" s="20"/>
     </row>
-    <row r="1130" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1130" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1130" s="20"/>
     </row>
-    <row r="1131" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1131" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1131" s="20"/>
     </row>
-    <row r="1132" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1132" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1132" s="20"/>
     </row>
-    <row r="1133" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1133" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1133" s="20"/>
     </row>
-    <row r="1134" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1134" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1134" s="20"/>
     </row>
-    <row r="1135" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1135" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1135" s="20"/>
     </row>
-    <row r="1136" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1136" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1136" s="20"/>
     </row>
-    <row r="1137" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1137" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1137" s="20"/>
     </row>
-    <row r="1138" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1138" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1138" s="20"/>
     </row>
-    <row r="1139" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1139" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1139" s="20"/>
     </row>
-    <row r="1140" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1140" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1140" s="20"/>
     </row>
-    <row r="1141" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1141" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1141" s="20"/>
     </row>
-    <row r="1142" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1142" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1142" s="20"/>
     </row>
-    <row r="1143" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1143" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1143" s="20"/>
     </row>
-    <row r="1144" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1144" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1144" s="20"/>
     </row>
-    <row r="1145" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1145" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1145" s="20"/>
     </row>
-    <row r="1146" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1146" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1146" s="20"/>
     </row>
-    <row r="1147" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1147" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1147" s="20"/>
     </row>
-    <row r="1148" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1148" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1148" s="20"/>
     </row>
-    <row r="1149" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1149" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1149" s="20"/>
     </row>
-    <row r="1150" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1150" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1150" s="20"/>
     </row>
-    <row r="1151" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1151" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1151" s="20"/>
     </row>
-    <row r="1152" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1152" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1152" s="20"/>
     </row>
-    <row r="1153" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1153" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1153" s="20"/>
     </row>
-    <row r="1154" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1154" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1154" s="20"/>
     </row>
-    <row r="1155" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1155" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1155" s="20"/>
     </row>
-    <row r="1156" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1156" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1156" s="20"/>
     </row>
-    <row r="1157" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1157" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1157" s="20"/>
     </row>
-    <row r="1158" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1158" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1158" s="20"/>
     </row>
-    <row r="1159" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1159" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1159" s="20"/>
     </row>
-    <row r="1160" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1160" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1160" s="20"/>
     </row>
-    <row r="1161" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1161" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1161" s="20"/>
     </row>
-    <row r="1162" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1162" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1162" s="20"/>
     </row>
-    <row r="1163" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1163" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1163" s="20"/>
     </row>
-    <row r="1164" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1164" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1164" s="20"/>
     </row>
-    <row r="1165" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1165" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1165" s="20"/>
     </row>
-    <row r="1166" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1166" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1166" s="20"/>
     </row>
-    <row r="1167" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1167" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1167" s="20"/>
     </row>
-    <row r="1168" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1168" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1168" s="20"/>
     </row>
-    <row r="1169" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1169" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1169" s="20"/>
     </row>
-    <row r="1170" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1170" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1170" s="20"/>
     </row>
-    <row r="1171" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1171" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1171" s="20"/>
     </row>
-    <row r="1172" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1172" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1172" s="20"/>
     </row>
-    <row r="1173" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1173" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1173" s="20"/>
     </row>
-    <row r="1174" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1174" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1174" s="20"/>
     </row>
-    <row r="1175" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1175" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1175" s="20"/>
     </row>
-    <row r="1176" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1176" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1176" s="20"/>
     </row>
-    <row r="1177" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1177" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1177" s="20"/>
     </row>
-    <row r="1178" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1178" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1178" s="20"/>
     </row>
-    <row r="1179" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1179" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1179" s="20"/>
     </row>
-    <row r="1180" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1180" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1180" s="20"/>
     </row>
-    <row r="1181" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1181" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1181" s="20"/>
     </row>
-    <row r="1182" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1182" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1182" s="20"/>
     </row>
-    <row r="1183" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1183" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1183" s="20"/>
     </row>
-    <row r="1184" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1184" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1184" s="20"/>
     </row>
-    <row r="1185" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1185" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1185" s="20"/>
     </row>
-    <row r="1186" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1186" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1186" s="20"/>
     </row>
-    <row r="1187" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1187" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1187" s="20"/>
     </row>
-    <row r="1188" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1188" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1188" s="20"/>
     </row>
-    <row r="1189" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1189" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1189" s="20"/>
     </row>
-    <row r="1190" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1190" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1190" s="20"/>
     </row>
-    <row r="1191" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1191" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1191" s="20"/>
     </row>
-    <row r="1192" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1192" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1192" s="20"/>
     </row>
-    <row r="1193" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1193" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1193" s="20"/>
     </row>
-    <row r="1194" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1194" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1194" s="20"/>
     </row>
-    <row r="1195" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1195" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1195" s="20"/>
     </row>
-    <row r="1196" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1196" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1196" s="20"/>
     </row>
-    <row r="1197" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1197" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1197" s="20"/>
     </row>
-    <row r="1198" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1198" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1198" s="20"/>
     </row>
-    <row r="1199" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1199" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1199" s="20"/>
     </row>
-    <row r="1200" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1200" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1200" s="20"/>
     </row>
-    <row r="1201" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1201" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1201" s="20"/>
     </row>
-    <row r="1202" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1202" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1202" s="20"/>
     </row>
-    <row r="1203" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1203" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1203" s="20"/>
     </row>
-    <row r="1204" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1204" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1204" s="20"/>
     </row>
-    <row r="1205" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1205" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1205" s="20"/>
     </row>
-    <row r="1206" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1206" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1206" s="20"/>
     </row>
-    <row r="1207" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1207" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1207" s="20"/>
     </row>
-    <row r="1208" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1208" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1208" s="20"/>
     </row>
-    <row r="1209" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1209" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1209" s="20"/>
     </row>
-    <row r="1210" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1210" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1210" s="20"/>
     </row>
-    <row r="1211" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1211" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1211" s="20"/>
     </row>
-    <row r="1212" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1212" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1212" s="20"/>
     </row>
-    <row r="1213" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1213" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1213" s="20"/>
     </row>
-    <row r="1214" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1214" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1214" s="20"/>
     </row>
-    <row r="1215" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1215" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1215" s="20"/>
     </row>
-    <row r="1216" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1216" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1216" s="20"/>
     </row>
-    <row r="1217" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1217" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1217" s="20"/>
     </row>
-    <row r="1218" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1218" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1218" s="20"/>
     </row>
-    <row r="1219" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1219" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1219" s="20"/>
     </row>
-    <row r="1220" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1220" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1220" s="20"/>
     </row>
-    <row r="1221" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1221" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1221" s="20"/>
     </row>
-    <row r="1222" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1222" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1222" s="20"/>
     </row>
-    <row r="1223" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1223" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1223" s="20"/>
     </row>
-    <row r="1224" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1224" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1224" s="20"/>
     </row>
-    <row r="1225" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1225" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1225" s="20"/>
     </row>
-    <row r="1226" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1226" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1226" s="20"/>
     </row>
-    <row r="1227" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1227" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1227" s="20"/>
     </row>
-    <row r="1228" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1228" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1228" s="20"/>
     </row>
-    <row r="1229" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1229" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1229" s="20"/>
     </row>
-    <row r="1230" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1230" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1230" s="20"/>
     </row>
-    <row r="1231" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1231" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1231" s="20"/>
     </row>
-    <row r="1232" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1232" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1232" s="20"/>
     </row>
-    <row r="1233" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1233" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1233" s="20"/>
     </row>
-    <row r="1234" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1234" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1234" s="20"/>
     </row>
-    <row r="1235" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1235" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1235" s="20"/>
     </row>
-    <row r="1236" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1236" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1236" s="20"/>
     </row>
-    <row r="1237" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1237" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1237" s="20"/>
     </row>
-    <row r="1238" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1238" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1238" s="20"/>
     </row>
-    <row r="1239" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1239" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1239" s="20"/>
     </row>
-    <row r="1240" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1240" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1240" s="20"/>
     </row>
-    <row r="1241" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1241" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1241" s="20"/>
     </row>
-    <row r="1242" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1242" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1242" s="20"/>
     </row>
-    <row r="1243" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1243" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1243" s="20"/>
     </row>
-    <row r="1244" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1244" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1244" s="20"/>
     </row>
-    <row r="1245" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1245" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1245" s="20"/>
     </row>
-    <row r="1246" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1246" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1246" s="20"/>
     </row>
-    <row r="1247" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1247" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1247" s="20"/>
     </row>
-    <row r="1248" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1248" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1248" s="20"/>
     </row>
-    <row r="1249" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1249" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1249" s="20"/>
     </row>
-    <row r="1250" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1250" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1250" s="20"/>
     </row>
-    <row r="1251" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1251" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1251" s="20"/>
     </row>
-    <row r="1252" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1252" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1252" s="20"/>
     </row>
-    <row r="1253" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1253" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1253" s="20"/>
     </row>
-    <row r="1254" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1254" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1254" s="20"/>
     </row>
-    <row r="1255" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1255" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1255" s="20"/>
     </row>
-    <row r="1256" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1256" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1256" s="20"/>
     </row>
-    <row r="1257" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1257" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1257" s="20"/>
     </row>
-    <row r="1258" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1258" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1258" s="20"/>
     </row>
-    <row r="1259" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1259" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1259" s="20"/>
     </row>
-    <row r="1260" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1260" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1260" s="20"/>
     </row>
-    <row r="1261" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1261" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1261" s="20"/>
     </row>
-    <row r="1262" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1262" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1262" s="20"/>
     </row>
-    <row r="1263" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1263" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1263" s="20"/>
     </row>
-    <row r="1264" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1264" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1264" s="20"/>
     </row>
-    <row r="1265" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1265" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1265" s="20"/>
     </row>
-    <row r="1266" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1266" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1266" s="20"/>
     </row>
-    <row r="1267" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1267" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1267" s="20"/>
     </row>
-    <row r="1268" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1268" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1268" s="20"/>
     </row>
-    <row r="1269" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1269" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1269" s="20"/>
     </row>
-    <row r="1270" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1270" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1270" s="20"/>
     </row>
-    <row r="1271" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1271" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1271" s="20"/>
     </row>
-    <row r="1272" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1272" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1272" s="20"/>
     </row>
-    <row r="1273" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1273" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1273" s="20"/>
     </row>
-    <row r="1274" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1274" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1274" s="20"/>
     </row>
-    <row r="1275" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1275" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1275" s="20"/>
     </row>
-    <row r="1276" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1276" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1276" s="20"/>
     </row>
-    <row r="1277" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1277" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1277" s="20"/>
     </row>
-    <row r="1278" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1278" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1278" s="20"/>
     </row>
-    <row r="1279" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1279" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1279" s="20"/>
     </row>
-    <row r="1280" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1280" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1280" s="20"/>
     </row>
-    <row r="1281" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1281" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1281" s="20"/>
     </row>
-    <row r="1282" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1282" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1282" s="20"/>
     </row>
-    <row r="1283" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1283" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1283" s="20"/>
     </row>
-    <row r="1284" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1284" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1284" s="20"/>
     </row>
-    <row r="1285" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1285" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1285" s="20"/>
     </row>
-    <row r="1286" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1286" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1286" s="20"/>
     </row>
-    <row r="1287" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1287" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1287" s="20"/>
     </row>
-    <row r="1288" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1288" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1288" s="20"/>
     </row>
-    <row r="1289" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1289" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1289" s="20"/>
     </row>
-    <row r="1290" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1290" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1290" s="20"/>
     </row>
-    <row r="1291" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1291" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1291" s="20"/>
     </row>
-    <row r="1292" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1292" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1292" s="20"/>
     </row>
-    <row r="1293" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1293" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1293" s="20"/>
     </row>
-    <row r="1294" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1294" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1294" s="20"/>
     </row>
-    <row r="1295" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1295" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1295" s="20"/>
     </row>
-    <row r="1296" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1296" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1296" s="20"/>
     </row>
-    <row r="1297" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1297" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1297" s="20"/>
     </row>
-    <row r="1298" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1298" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1298" s="20"/>
     </row>
-    <row r="1299" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1299" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1299" s="20"/>
     </row>
-    <row r="1300" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1300" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1300" s="20"/>
     </row>
-    <row r="1301" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1301" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1301" s="20"/>
     </row>
-    <row r="1302" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1302" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1302" s="20"/>
     </row>
-    <row r="1303" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1303" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1303" s="20"/>
     </row>
-    <row r="1304" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1304" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1304" s="20"/>
     </row>
-    <row r="1305" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1305" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1305" s="20"/>
     </row>
-    <row r="1306" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1306" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1306" s="20"/>
     </row>
-    <row r="1307" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1307" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1307" s="20"/>
     </row>
-    <row r="1308" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1308" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1308" s="20"/>
     </row>
-    <row r="1309" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1309" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1309" s="20"/>
     </row>
-    <row r="1310" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1310" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1310" s="20"/>
     </row>
-    <row r="1311" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1311" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1311" s="20"/>
     </row>
-    <row r="1312" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1312" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1312" s="20"/>
     </row>
-    <row r="1313" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1313" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1313" s="20"/>
     </row>
-    <row r="1314" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1314" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1314" s="20"/>
     </row>
-    <row r="1315" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1315" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1315" s="20"/>
     </row>
-    <row r="1316" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1316" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1316" s="20"/>
     </row>
-    <row r="1317" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1317" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1317" s="20"/>
     </row>
-    <row r="1318" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1318" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1318" s="20"/>
     </row>
-    <row r="1319" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1319" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1319" s="20"/>
     </row>
-    <row r="1320" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1320" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1320" s="20"/>
     </row>
-    <row r="1321" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1321" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1321" s="20"/>
     </row>
-    <row r="1322" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1322" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1322" s="20"/>
     </row>
-    <row r="1323" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1323" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1323" s="20"/>
     </row>
-    <row r="1324" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1324" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1324" s="20"/>
     </row>
-    <row r="1325" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1325" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1325" s="20"/>
     </row>
-    <row r="1326" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1326" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1326" s="20"/>
     </row>
-    <row r="1327" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1327" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1327" s="20"/>
     </row>
-    <row r="1328" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1328" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1328" s="20"/>
     </row>
-    <row r="1329" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1329" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1329" s="20"/>
     </row>
-    <row r="1330" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1330" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1330" s="20"/>
     </row>
-    <row r="1331" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1331" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1331" s="20"/>
     </row>
-    <row r="1332" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1332" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1332" s="20"/>
     </row>
-    <row r="1333" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1333" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1333" s="20"/>
     </row>
-    <row r="1334" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1334" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1334" s="20"/>
     </row>
-    <row r="1335" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1335" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1335" s="20"/>
     </row>
-    <row r="1336" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1336" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1336" s="20"/>
     </row>
-    <row r="1337" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1337" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1337" s="20"/>
     </row>
-    <row r="1338" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1338" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1338" s="20"/>
     </row>
-    <row r="1339" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1339" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1339" s="20"/>
     </row>
-    <row r="1340" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1340" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1340" s="20"/>
     </row>
-    <row r="1341" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1341" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1341" s="20"/>
     </row>
-    <row r="1342" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1342" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1342" s="20"/>
     </row>
-    <row r="1343" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1343" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1343" s="20"/>
     </row>
-    <row r="1344" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1344" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1344" s="20"/>
     </row>
-    <row r="1345" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1345" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1345" s="20"/>
     </row>
-    <row r="1346" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1346" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1346" s="20"/>
     </row>
-    <row r="1347" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1347" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1347" s="20"/>
     </row>
-    <row r="1348" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1348" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1348" s="20"/>
     </row>
-    <row r="1349" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1349" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1349" s="20"/>
     </row>
-    <row r="1350" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1350" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1350" s="20"/>
     </row>
-    <row r="1351" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1351" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1351" s="20"/>
     </row>
-    <row r="1352" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1352" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1352" s="20"/>
     </row>
-    <row r="1353" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1353" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1353" s="20"/>
     </row>
-    <row r="1354" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1354" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1354" s="20"/>
     </row>
-    <row r="1355" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1355" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1355" s="20"/>
     </row>
-    <row r="1356" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1356" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1356" s="20"/>
     </row>
-    <row r="1357" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1357" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1357" s="20"/>
     </row>
-    <row r="1358" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1358" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1358" s="20"/>
     </row>
-    <row r="1359" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1359" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1359" s="20"/>
     </row>
-    <row r="1360" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1360" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1360" s="20"/>
     </row>
-    <row r="1361" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1361" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1361" s="20"/>
     </row>
-    <row r="1362" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1362" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1362" s="20"/>
     </row>
-    <row r="1363" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1363" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1363" s="20"/>
     </row>
-    <row r="1364" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1364" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1364" s="20"/>
     </row>
-    <row r="1365" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1365" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1365" s="20"/>
     </row>
-    <row r="1366" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1366" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1366" s="20"/>
     </row>
-    <row r="1367" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1367" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1367" s="20"/>
     </row>
-    <row r="1368" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1368" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1368" s="20"/>
     </row>
-    <row r="1369" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1369" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1369" s="20"/>
     </row>
-    <row r="1370" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1370" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1370" s="20"/>
     </row>
-    <row r="1371" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1371" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1371" s="20"/>
     </row>
-    <row r="1372" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1372" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1372" s="20"/>
     </row>
-    <row r="1373" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1373" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1373" s="20"/>
     </row>
-    <row r="1374" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1374" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1374" s="20"/>
     </row>
-    <row r="1375" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1375" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1375" s="20"/>
     </row>
-    <row r="1376" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1376" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1376" s="20"/>
     </row>
-    <row r="1377" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1377" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1377" s="20"/>
     </row>
-    <row r="1378" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1378" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1378" s="20"/>
     </row>
-    <row r="1379" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1379" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1379" s="20"/>
     </row>
-    <row r="1380" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1380" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1380" s="20"/>
     </row>
-    <row r="1381" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1381" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1381" s="20"/>
     </row>
-    <row r="1382" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1382" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1382" s="20"/>
     </row>
-    <row r="1383" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1383" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1383" s="20"/>
     </row>
-    <row r="1384" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1384" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1384" s="20"/>
     </row>
-    <row r="1385" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1385" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1385" s="20"/>
     </row>
-    <row r="1386" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1386" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1386" s="20"/>
     </row>
-    <row r="1387" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1387" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1387" s="20"/>
     </row>
-    <row r="1388" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1388" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1388" s="20"/>
     </row>
-    <row r="1389" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1389" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1389" s="20"/>
     </row>
-    <row r="1390" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1390" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1390" s="20"/>
     </row>
-    <row r="1391" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1391" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1391" s="20"/>
     </row>
-    <row r="1392" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1392" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1392" s="20"/>
     </row>
-    <row r="1393" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1393" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1393" s="20"/>
     </row>
-    <row r="1394" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1394" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1394" s="20"/>
     </row>
-    <row r="1395" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1395" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1395" s="20"/>
     </row>
-    <row r="1396" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1396" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1396" s="20"/>
     </row>
-    <row r="1397" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1397" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1397" s="20"/>
     </row>
-    <row r="1398" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1398" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1398" s="20"/>
     </row>
-    <row r="1399" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1399" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1399" s="20"/>
     </row>
-    <row r="1400" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1400" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1400" s="20"/>
     </row>
-    <row r="1401" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1401" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1401" s="20"/>
     </row>
-    <row r="1402" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1402" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1402" s="20"/>
     </row>
-    <row r="1403" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1403" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1403" s="20"/>
     </row>
-    <row r="1404" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1404" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1404" s="20"/>
     </row>
-    <row r="1405" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1405" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1405" s="20"/>
     </row>
-    <row r="1406" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1406" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1406" s="20"/>
     </row>
-    <row r="1407" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1407" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1407" s="20"/>
     </row>
-    <row r="1408" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1408" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1408" s="20"/>
     </row>
-    <row r="1409" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1409" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1409" s="20"/>
     </row>
-    <row r="1410" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1410" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1410" s="20"/>
     </row>
-    <row r="1411" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1411" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1411" s="20"/>
     </row>
-    <row r="1412" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1412" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1412" s="20"/>
     </row>
-    <row r="1413" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1413" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1413" s="20"/>
     </row>
-    <row r="1414" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1414" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1414" s="20"/>
     </row>
-    <row r="1415" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1415" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1415" s="20"/>
     </row>
-    <row r="1416" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1416" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1416" s="20"/>
     </row>
-    <row r="1417" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1417" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1417" s="20"/>
     </row>
-    <row r="1418" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1418" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1418" s="20"/>
     </row>
-    <row r="1419" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1419" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1419" s="20"/>
     </row>
-    <row r="1420" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1420" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1420" s="20"/>
     </row>
-    <row r="1421" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1421" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1421" s="20"/>
     </row>
-    <row r="1422" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1422" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1422" s="20"/>
     </row>
-    <row r="1423" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1423" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1423" s="20"/>
     </row>
-    <row r="1424" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1424" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1424" s="20"/>
     </row>
-    <row r="1425" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1425" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1425" s="20"/>
     </row>
-    <row r="1426" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1426" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1426" s="20"/>
     </row>
-    <row r="1427" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1427" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1427" s="20"/>
     </row>
-    <row r="1428" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1428" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1428" s="20"/>
     </row>
-    <row r="1429" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1429" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1429" s="20"/>
     </row>
-    <row r="1430" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1430" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1430" s="20"/>
     </row>
-    <row r="1431" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1431" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1431" s="20"/>
     </row>
-    <row r="1432" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1432" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1432" s="20"/>
     </row>
-    <row r="1433" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1433" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1433" s="20"/>
     </row>
-    <row r="1434" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1434" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1434" s="20"/>
     </row>
-    <row r="1435" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1435" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1435" s="20"/>
     </row>
-    <row r="1436" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1436" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1436" s="20"/>
     </row>
-    <row r="1437" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1437" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1437" s="20"/>
     </row>
-    <row r="1438" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1438" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1438" s="20"/>
     </row>
-    <row r="1439" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1439" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1439" s="20"/>
     </row>
-    <row r="1440" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1440" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1440" s="20"/>
     </row>
-    <row r="1441" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1441" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1441" s="20"/>
     </row>
-    <row r="1442" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1442" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1442" s="20"/>
     </row>
-    <row r="1443" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1443" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1443" s="20"/>
     </row>
-    <row r="1444" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1444" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1444" s="20"/>
     </row>
-    <row r="1445" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1445" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1445" s="20"/>
     </row>
-    <row r="1446" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1446" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1446" s="20"/>
     </row>
-    <row r="1447" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1447" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1447" s="20"/>
     </row>
-    <row r="1448" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1448" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1448" s="20"/>
     </row>
-    <row r="1449" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1449" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1449" s="20"/>
     </row>
-    <row r="1450" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1450" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1450" s="20"/>
     </row>
-    <row r="1451" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1451" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1451" s="20"/>
     </row>
-    <row r="1452" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1452" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1452" s="20"/>
     </row>
-    <row r="1453" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1453" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1453" s="20"/>
     </row>
-    <row r="1454" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1454" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1454" s="20"/>
     </row>
-    <row r="1455" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1455" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1455" s="20"/>
     </row>
-    <row r="1456" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1456" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1456" s="20"/>
     </row>
-    <row r="1457" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1457" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1457" s="20"/>
     </row>
-    <row r="1458" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1458" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1458" s="20"/>
     </row>
-    <row r="1459" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1459" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1459" s="20"/>
     </row>
-    <row r="1460" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1460" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1460" s="20"/>
     </row>
-    <row r="1461" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1461" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1461" s="20"/>
     </row>
-    <row r="1462" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1462" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1462" s="20"/>
     </row>
-    <row r="1463" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1463" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1463" s="20"/>
     </row>
-    <row r="1464" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1464" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1464" s="20"/>
     </row>
-    <row r="1465" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1465" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1465" s="20"/>
     </row>
-    <row r="1466" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1466" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1466" s="20"/>
     </row>
-    <row r="1467" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1467" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1467" s="20"/>
     </row>
-    <row r="1468" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1468" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1468" s="20"/>
     </row>
-    <row r="1469" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1469" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1469" s="20"/>
     </row>
-    <row r="1470" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1470" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1470" s="20"/>
     </row>
-    <row r="1471" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1471" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1471" s="20"/>
     </row>
-    <row r="1472" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1472" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1472" s="20"/>
     </row>
-    <row r="1473" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1473" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1473" s="20"/>
     </row>
-    <row r="1474" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1474" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1474" s="20"/>
     </row>
-    <row r="1475" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1475" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1475" s="20"/>
     </row>
-    <row r="1476" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1476" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1476" s="20"/>
     </row>
-    <row r="1477" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1477" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1477" s="20"/>
     </row>
-    <row r="1478" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1478" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1478" s="20"/>
     </row>
-    <row r="1479" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1479" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1479" s="20"/>
     </row>
-    <row r="1480" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1480" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1480" s="20"/>
     </row>
-    <row r="1481" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1481" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1481" s="20"/>
     </row>
-    <row r="1482" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1482" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1482" s="20"/>
     </row>
-    <row r="1483" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1483" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1483" s="20"/>
     </row>
-    <row r="1484" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1484" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1484" s="20"/>
     </row>
-    <row r="1485" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1485" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1485" s="20"/>
     </row>
-    <row r="1486" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1486" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1486" s="20"/>
     </row>
-    <row r="1487" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1487" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1487" s="20"/>
     </row>
-    <row r="1488" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1488" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1488" s="20"/>
     </row>
-    <row r="1489" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1489" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1489" s="20"/>
     </row>
-    <row r="1490" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1490" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1490" s="20"/>
     </row>
-    <row r="1491" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1491" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1491" s="20"/>
     </row>
-    <row r="1492" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1492" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1492" s="20"/>
     </row>
-    <row r="1493" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1493" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1493" s="20"/>
     </row>
-    <row r="1494" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1494" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1494" s="20"/>
     </row>
-    <row r="1495" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1495" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1495" s="20"/>
     </row>
-    <row r="1496" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1496" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1496" s="20"/>
     </row>
-    <row r="1497" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1497" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1497" s="20"/>
     </row>
-    <row r="1498" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1498" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1498" s="20"/>
     </row>
-    <row r="1499" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1499" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1499" s="20"/>
     </row>
-    <row r="1500" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1500" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1500" s="20"/>
     </row>
-    <row r="1501" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1501" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1501" s="20"/>
     </row>
-    <row r="1502" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1502" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1502" s="20"/>
     </row>
-    <row r="1503" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1503" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1503" s="20"/>
     </row>
-    <row r="1504" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1504" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1504" s="20"/>
     </row>
-    <row r="1505" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1505" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1505" s="20"/>
     </row>
-    <row r="1506" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1506" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1506" s="20"/>
     </row>
-    <row r="1507" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1507" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1507" s="20"/>
     </row>
-    <row r="1508" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1508" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1508" s="20"/>
     </row>
-    <row r="1509" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1509" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1509" s="20"/>
     </row>
-    <row r="1510" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1510" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1510" s="20"/>
     </row>
-    <row r="1511" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1511" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1511" s="20"/>
     </row>
-    <row r="1512" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1512" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1512" s="20"/>
     </row>
-    <row r="1513" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1513" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1513" s="20"/>
     </row>
-    <row r="1514" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1514" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1514" s="20"/>
     </row>
-    <row r="1515" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1515" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1515" s="20"/>
     </row>
-    <row r="1516" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1516" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1516" s="20"/>
     </row>
-    <row r="1517" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1517" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1517" s="20"/>
     </row>
-    <row r="1518" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1518" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1518" s="20"/>
     </row>
-    <row r="1519" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1519" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1519" s="20"/>
     </row>
-    <row r="1520" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1520" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1520" s="20"/>
     </row>
-    <row r="1521" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1521" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1521" s="20"/>
     </row>
-    <row r="1522" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1522" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1522" s="20"/>
     </row>
-    <row r="1523" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1523" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1523" s="20"/>
     </row>
-    <row r="1524" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1524" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1524" s="20"/>
     </row>
-    <row r="1525" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1525" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1525" s="20"/>
     </row>
-    <row r="1526" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1526" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1526" s="20"/>
     </row>
-    <row r="1527" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1527" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1527" s="20"/>
     </row>
-    <row r="1528" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1528" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1528" s="20"/>
     </row>
-    <row r="1529" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1529" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1529" s="20"/>
     </row>
-    <row r="1530" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1530" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1530" s="20"/>
     </row>
-    <row r="1531" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1531" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1531" s="20"/>
     </row>
-    <row r="1532" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1532" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1532" s="20"/>
     </row>
-    <row r="1533" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1533" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1533" s="20"/>
     </row>
-    <row r="1534" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1534" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1534" s="20"/>
     </row>
-    <row r="1535" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1535" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1535" s="20"/>
     </row>
-    <row r="1536" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1536" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1536" s="20"/>
     </row>
-    <row r="1537" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1537" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1537" s="20"/>
     </row>
-    <row r="1538" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1538" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1538" s="20"/>
     </row>
-    <row r="1539" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1539" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1539" s="20"/>
     </row>
-    <row r="1540" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1540" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1540" s="20"/>
     </row>
-    <row r="1541" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1541" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1541" s="20"/>
     </row>
-    <row r="1542" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1542" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1542" s="20"/>
     </row>
-    <row r="1543" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1543" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1543" s="20"/>
     </row>
-    <row r="1544" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1544" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1544" s="20"/>
     </row>
-    <row r="1545" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1545" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1545" s="20"/>
     </row>
-    <row r="1546" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1546" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1546" s="20"/>
     </row>
-    <row r="1547" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1547" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1547" s="20"/>
     </row>
-    <row r="1548" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1548" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1548" s="20"/>
     </row>
-    <row r="1549" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1549" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1549" s="20"/>
     </row>
-    <row r="1550" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1550" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1550" s="20"/>
     </row>
-    <row r="1551" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1551" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1551" s="20"/>
     </row>
-    <row r="1552" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1552" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1552" s="20"/>
     </row>
-    <row r="1553" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1553" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1553" s="20"/>
     </row>
-    <row r="1554" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1554" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1554" s="20"/>
     </row>
-    <row r="1555" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1555" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1555" s="20"/>
     </row>
-    <row r="1556" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1556" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1556" s="20"/>
     </row>
-    <row r="1557" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1557" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1557" s="20"/>
     </row>
-    <row r="1558" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1558" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1558" s="20"/>
     </row>
-    <row r="1559" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1559" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1559" s="20"/>
     </row>
-    <row r="1560" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1560" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1560" s="20"/>
     </row>
-    <row r="1561" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1561" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1561" s="20"/>
     </row>
-    <row r="1562" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1562" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1562" s="20"/>
     </row>
-    <row r="1563" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1563" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1563" s="20"/>
     </row>
-    <row r="1564" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1564" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1564" s="20"/>
     </row>
-    <row r="1565" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1565" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1565" s="20"/>
     </row>
-    <row r="1566" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1566" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1566" s="20"/>
     </row>
-    <row r="1567" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1567" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1567" s="20"/>
     </row>
-    <row r="1568" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1568" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1568" s="20"/>
     </row>
-    <row r="1569" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1569" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1569" s="20"/>
     </row>
-    <row r="1570" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1570" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1570" s="20"/>
     </row>
-    <row r="1571" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1571" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1571" s="20"/>
     </row>
-    <row r="1572" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1572" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1572" s="20"/>
     </row>
-    <row r="1573" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1573" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1573" s="20"/>
     </row>
-    <row r="1574" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1574" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1574" s="20"/>
     </row>
-    <row r="1575" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1575" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1575" s="20"/>
     </row>
-    <row r="1576" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1576" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1576" s="20"/>
     </row>
-    <row r="1577" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1577" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1577" s="20"/>
     </row>
-    <row r="1578" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1578" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1578" s="20"/>
     </row>
-    <row r="1579" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1579" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1579" s="20"/>
     </row>
-    <row r="1580" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1580" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1580" s="20"/>
     </row>
-    <row r="1581" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1581" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1581" s="20"/>
     </row>
-    <row r="1582" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1582" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1582" s="20"/>
     </row>
-    <row r="1583" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1583" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1583" s="20"/>
     </row>
-    <row r="1584" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1584" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1584" s="20"/>
     </row>
-    <row r="1585" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1585" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1585" s="20"/>
     </row>
-    <row r="1586" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1586" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1586" s="20"/>
     </row>
-    <row r="1587" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1587" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1587" s="20"/>
     </row>
-    <row r="1588" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1588" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1588" s="20"/>
     </row>
-    <row r="1589" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1589" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1589" s="20"/>
     </row>
-    <row r="1590" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1590" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1590" s="20"/>
     </row>
-    <row r="1591" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1591" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1591" s="20"/>
     </row>
-    <row r="1592" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1592" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1592" s="20"/>
     </row>
-    <row r="1593" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1593" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1593" s="20"/>
     </row>
-    <row r="1594" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1594" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1594" s="20"/>
     </row>
-    <row r="1595" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1595" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1595" s="20"/>
     </row>
-    <row r="1596" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1596" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1596" s="20"/>
     </row>
-    <row r="1597" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1597" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1597" s="20"/>
     </row>
-    <row r="1598" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1598" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1598" s="20"/>
     </row>
-    <row r="1599" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1599" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1599" s="20"/>
     </row>
-    <row r="1600" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1600" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1600" s="20"/>
     </row>
-    <row r="1601" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1601" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1601" s="20"/>
     </row>
-    <row r="1602" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1602" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1602" s="20"/>
     </row>
-    <row r="1603" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1603" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1603" s="20"/>
     </row>
-    <row r="1604" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1604" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1604" s="20"/>
     </row>
-    <row r="1605" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1605" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1605" s="20"/>
     </row>
-    <row r="1606" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1606" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1606" s="20"/>
     </row>
-    <row r="1607" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1607" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1607" s="20"/>
     </row>
-    <row r="1608" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1608" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1608" s="20"/>
     </row>
-    <row r="1609" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1609" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1609" s="20"/>
     </row>
-    <row r="1610" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1610" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1610" s="20"/>
     </row>
-    <row r="1611" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1611" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1611" s="20"/>
     </row>
-    <row r="1612" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1612" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1612" s="20"/>
     </row>
-    <row r="1613" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1613" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1613" s="20"/>
     </row>
-    <row r="1614" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1614" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1614" s="20"/>
     </row>
-    <row r="1615" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1615" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1615" s="20"/>
     </row>
-    <row r="1616" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1616" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1616" s="20"/>
     </row>
-    <row r="1617" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1617" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1617" s="20"/>
     </row>
-    <row r="1618" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1618" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1618" s="20"/>
     </row>
-    <row r="1619" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1619" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1619" s="20"/>
     </row>
-    <row r="1620" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1620" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1620" s="20"/>
     </row>
-    <row r="1621" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1621" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1621" s="20"/>
     </row>
-    <row r="1622" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1622" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1622" s="20"/>
     </row>
-    <row r="1623" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1623" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1623" s="20"/>
     </row>
-    <row r="1624" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1624" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1624" s="20"/>
     </row>
-    <row r="1625" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1625" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1625" s="20"/>
     </row>
-    <row r="1626" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1626" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1626" s="20"/>
     </row>
-    <row r="1627" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1627" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1627" s="20"/>
     </row>
-    <row r="1628" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1628" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1628" s="20"/>
     </row>
-    <row r="1629" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1629" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1629" s="20"/>
     </row>
-    <row r="1630" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1630" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1630" s="20"/>
     </row>
-    <row r="1631" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1631" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1631" s="20"/>
     </row>
-    <row r="1632" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1632" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1632" s="20"/>
     </row>
-    <row r="1633" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1633" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1633" s="20"/>
     </row>
-    <row r="1634" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1634" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1634" s="20"/>
     </row>
-    <row r="1635" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1635" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1635" s="20"/>
     </row>
-    <row r="1636" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1636" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1636" s="20"/>
     </row>
-    <row r="1637" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1637" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1637" s="20"/>
     </row>
-    <row r="1638" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1638" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1638" s="20"/>
     </row>
-    <row r="1639" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1639" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1639" s="20"/>
     </row>
-    <row r="1640" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1640" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1640" s="20"/>
     </row>
-    <row r="1641" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1641" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1641" s="20"/>
     </row>
-    <row r="1642" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1642" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1642" s="20"/>
     </row>
-    <row r="1643" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1643" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1643" s="20"/>
     </row>
-    <row r="1644" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1644" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1644" s="20"/>
     </row>
-    <row r="1645" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1645" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1645" s="20"/>
     </row>
-    <row r="1646" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1646" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1646" s="20"/>
     </row>
-    <row r="1647" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1647" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1647" s="20"/>
     </row>
-    <row r="1648" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1648" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1648" s="20"/>
     </row>
-    <row r="1649" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1649" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1649" s="20"/>
     </row>
-    <row r="1650" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1650" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1650" s="20"/>
     </row>
-    <row r="1651" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1651" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1651" s="20"/>
     </row>
-    <row r="1652" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1652" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1652" s="20"/>
     </row>
-    <row r="1653" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1653" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1653" s="20"/>
     </row>
-    <row r="1654" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1654" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1654" s="20"/>
     </row>
-    <row r="1655" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1655" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1655" s="20"/>
     </row>
-    <row r="1656" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1656" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1656" s="20"/>
     </row>
-    <row r="1657" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1657" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1657" s="20"/>
     </row>
-    <row r="1658" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1658" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1658" s="20"/>
     </row>
-    <row r="1659" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1659" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1659" s="20"/>
     </row>
-    <row r="1660" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1660" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1660" s="20"/>
     </row>
-    <row r="1661" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1661" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1661" s="20"/>
     </row>
-    <row r="1662" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1662" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1662" s="20"/>
     </row>
-    <row r="1663" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1663" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1663" s="20"/>
     </row>
-    <row r="1664" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1664" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1664" s="20"/>
     </row>
-    <row r="1665" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1665" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1665" s="20"/>
     </row>
-    <row r="1666" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1666" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1666" s="20"/>
     </row>
-    <row r="1667" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1667" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1667" s="20"/>
     </row>
-    <row r="1668" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1668" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1668" s="20"/>
     </row>
-    <row r="1669" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1669" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1669" s="20"/>
     </row>
-    <row r="1670" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1670" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1670" s="20"/>
     </row>
-    <row r="1671" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1671" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1671" s="20"/>
     </row>
-    <row r="1672" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1672" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1672" s="20"/>
     </row>
-    <row r="1673" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1673" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1673" s="20"/>
     </row>
-    <row r="1674" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1674" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1674" s="20"/>
     </row>
-    <row r="1675" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1675" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1675" s="20"/>
     </row>
-    <row r="1676" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1676" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1676" s="20"/>
     </row>
-    <row r="1677" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1677" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1677" s="20"/>
     </row>
-    <row r="1678" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1678" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1678" s="20"/>
     </row>
-    <row r="1679" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1679" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1679" s="20"/>
     </row>
-    <row r="1680" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1680" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1680" s="20"/>
     </row>
-    <row r="1681" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1681" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1681" s="20"/>
     </row>
-    <row r="1682" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1682" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1682" s="20"/>
     </row>
-    <row r="1683" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1683" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1683" s="20"/>
     </row>
-    <row r="1684" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1684" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1684" s="20"/>
     </row>
-    <row r="1685" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1685" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1685" s="20"/>
     </row>
-    <row r="1686" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1686" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1686" s="20"/>
     </row>
-    <row r="1687" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1687" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1687" s="20"/>
     </row>
-    <row r="1688" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1688" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1688" s="20"/>
     </row>
-    <row r="1689" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1689" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1689" s="20"/>
     </row>
-    <row r="1690" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1690" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1690" s="20"/>
     </row>
-    <row r="1691" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1691" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1691" s="20"/>
     </row>
-    <row r="1692" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1692" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1692" s="20"/>
     </row>
-    <row r="1693" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1693" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1693" s="20"/>
     </row>
-    <row r="1694" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1694" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1694" s="20"/>
     </row>
-    <row r="1695" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1695" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1695" s="20"/>
     </row>
-    <row r="1696" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1696" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1696" s="20"/>
     </row>
-    <row r="1697" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1697" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1697" s="20"/>
     </row>
-    <row r="1698" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1698" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1698" s="20"/>
     </row>
-    <row r="1699" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1699" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1699" s="20"/>
     </row>
-    <row r="1700" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1700" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1700" s="20"/>
     </row>
-    <row r="1701" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1701" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1701" s="20"/>
     </row>
-    <row r="1702" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1702" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1702" s="20"/>
     </row>
-    <row r="1703" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1703" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1703" s="20"/>
     </row>
-    <row r="1704" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1704" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1704" s="20"/>
     </row>
-    <row r="1705" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1705" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1705" s="20"/>
     </row>
-    <row r="1706" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1706" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1706" s="20"/>
     </row>
-    <row r="1707" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1707" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1707" s="20"/>
     </row>
-    <row r="1708" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1708" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1708" s="20"/>
     </row>
-    <row r="1709" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1709" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1709" s="20"/>
     </row>
-    <row r="1710" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1710" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1710" s="20"/>
     </row>
-    <row r="1711" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1711" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1711" s="20"/>
     </row>
-    <row r="1712" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1712" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1712" s="20"/>
     </row>
-    <row r="1713" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1713" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1713" s="20"/>
     </row>
-    <row r="1714" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1714" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1714" s="20"/>
     </row>
-    <row r="1715" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1715" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1715" s="20"/>
     </row>
-    <row r="1716" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1716" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1716" s="20"/>
     </row>
-    <row r="1717" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1717" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1717" s="20"/>
     </row>
-    <row r="1718" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1718" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1718" s="20"/>
     </row>
-    <row r="1719" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1719" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1719" s="20"/>
     </row>
-    <row r="1720" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1720" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1720" s="20"/>
     </row>
-    <row r="1721" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1721" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1721" s="20"/>
     </row>
-    <row r="1722" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1722" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1722" s="20"/>
     </row>
-    <row r="1723" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1723" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1723" s="20"/>
     </row>
-    <row r="1724" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1724" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1724" s="20"/>
     </row>
-    <row r="1725" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1725" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1725" s="20"/>
     </row>
-    <row r="1726" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1726" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1726" s="20"/>
     </row>
-    <row r="1727" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1727" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1727" s="20"/>
     </row>
-    <row r="1728" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1728" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1728" s="20"/>
     </row>
-    <row r="1729" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1729" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1729" s="20"/>
     </row>
-    <row r="1730" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1730" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1730" s="20"/>
     </row>
-    <row r="1731" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1731" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1731" s="20"/>
     </row>
-    <row r="1732" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1732" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1732" s="20"/>
     </row>
-    <row r="1733" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1733" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1733" s="20"/>
     </row>
-    <row r="1734" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1734" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1734" s="20"/>
     </row>
-    <row r="1735" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1735" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1735" s="20"/>
     </row>
-    <row r="1736" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1736" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1736" s="20"/>
     </row>
-    <row r="1737" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1737" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1737" s="20"/>
     </row>
-    <row r="1738" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1738" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1738" s="20"/>
     </row>
-    <row r="1739" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1739" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1739" s="20"/>
     </row>
-    <row r="1740" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1740" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1740" s="20"/>
     </row>
-    <row r="1741" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1741" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1741" s="20"/>
     </row>
-    <row r="1742" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1742" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1742" s="20"/>
     </row>
-    <row r="1743" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1743" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1743" s="20"/>
     </row>
-    <row r="1744" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1744" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1744" s="20"/>
     </row>
-    <row r="1745" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1745" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1745" s="20"/>
     </row>
-    <row r="1746" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1746" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1746" s="20"/>
     </row>
-    <row r="1747" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1747" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1747" s="20"/>
     </row>
-    <row r="1748" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1748" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1748" s="20"/>
     </row>
-    <row r="1749" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1749" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1749" s="20"/>
     </row>
-    <row r="1750" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1750" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1750" s="20"/>
     </row>
-    <row r="1751" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1751" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1751" s="20"/>
     </row>
-    <row r="1752" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1752" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1752" s="20"/>
     </row>
-    <row r="1753" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1753" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1753" s="20"/>
     </row>
-    <row r="1754" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1754" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1754" s="20"/>
     </row>
-    <row r="1755" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1755" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1755" s="20"/>
     </row>
-    <row r="1756" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1756" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1756" s="20"/>
     </row>
-    <row r="1757" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1757" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1757" s="20"/>
     </row>
-    <row r="1758" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1758" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1758" s="20"/>
     </row>
-    <row r="1759" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1759" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1759" s="20"/>
     </row>
-    <row r="1760" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1760" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1760" s="20"/>
     </row>
-    <row r="1761" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1761" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1761" s="20"/>
     </row>
-    <row r="1762" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1762" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1762" s="20"/>
     </row>
-    <row r="1763" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1763" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1763" s="20"/>
     </row>
-    <row r="1764" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1764" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1764" s="20"/>
     </row>
-    <row r="1765" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1765" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1765" s="20"/>
     </row>
-    <row r="1766" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1766" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1766" s="20"/>
     </row>
-    <row r="1767" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1767" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1767" s="20"/>
     </row>
-    <row r="1768" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1768" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1768" s="20"/>
     </row>
-    <row r="1769" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1769" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1769" s="20"/>
     </row>
-    <row r="1770" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1770" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1770" s="20"/>
     </row>
-    <row r="1771" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1771" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1771" s="20"/>
     </row>
-    <row r="1772" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1772" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1772" s="20"/>
     </row>
-    <row r="1773" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1773" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1773" s="20"/>
     </row>
-    <row r="1774" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1774" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1774" s="20"/>
     </row>
-    <row r="1775" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1775" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1775" s="20"/>
     </row>
-    <row r="1776" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1776" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1776" s="20"/>
     </row>
-    <row r="1777" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1777" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1777" s="20"/>
     </row>
-    <row r="1778" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1778" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1778" s="20"/>
     </row>
-    <row r="1779" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1779" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1779" s="20"/>
     </row>
-    <row r="1780" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1780" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1780" s="20"/>
     </row>
-    <row r="1781" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1781" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1781" s="20"/>
     </row>
-    <row r="1782" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1782" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1782" s="20"/>
     </row>
-    <row r="1783" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1783" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1783" s="20"/>
     </row>
-    <row r="1784" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1784" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1784" s="20"/>
     </row>
-    <row r="1785" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1785" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1785" s="20"/>
     </row>
-    <row r="1786" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1786" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1786" s="20"/>
     </row>
-    <row r="1787" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1787" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1787" s="20"/>
     </row>
-    <row r="1788" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1788" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1788" s="20"/>
     </row>
-    <row r="1789" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1789" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1789" s="20"/>
     </row>
-    <row r="1790" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1790" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1790" s="20"/>
     </row>
-    <row r="1791" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1791" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1791" s="20"/>
     </row>
-    <row r="1792" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1792" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1792" s="20"/>
     </row>
-    <row r="1793" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1793" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1793" s="20"/>
     </row>
-    <row r="1794" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1794" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1794" s="20"/>
     </row>
-    <row r="1795" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="1795" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G1795" s="20"/>
     </row>
   </sheetData>
@@ -7514,7 +7528,7 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1" display="https://www.elconsolto.com/ramadan/ramadan-advice/details/2018/5/17/1345860/%D9%87%D9%84-%D8%AA%D9%86%D8%A7%D9%88%D9%84-%D8%A7%D9%84%D8%B4%D8%A7%D9%8A-%D9%81%D9%8A-%D8%A7%D9%84%D8%B3%D8%AD%D9%88%D8%B1-%D9%8A%D9%82%D9%84%D9%84-%D8%A7%D9%84%D8%B4%D8%B9%D9%88%D8%B1-%D8%A8%D8%A7%D9%84%D8%B9%D8%B7%D8%B4-" xr:uid="{58325688-251E-4110-A790-FFC833AE2067}"/>
+    <hyperlink ref="F12" r:id="rId1" display="https://www.elconsolto.com/ramadan/ramadan-advice/details/2018/5/17/1345860/%D9%87%D9%84-%D8%AA%D9%86%D8%A7%D9%88%D9%84-%D8%A7%D9%84%D8%B4%D8%A7%D9%8A-%D9%81%D9%8A-%D8%A7%D9%84%D8%B3%D8%AD%D9%88%D8%B1-%D9%8A%D9%82%D9%84%D9%84-%D8%A7%D9%84%D8%B4%D8%B9%D9%88%D8%B1-%D8%A8%D8%A7%D9%84%D8%B9%D8%B7%D8%B4-"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/Docs/Tables/Task1.xlsx
+++ b/Docs/Tables/Task1.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Abdelrahman Bahaa Eldin Bonna</t>
   </si>
@@ -394,6 +394,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -401,9 +404,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,7 +690,7 @@
   <dimension ref="A1:Q1795"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -708,14 +708,14 @@
       <c r="A1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:17" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -987,7 +987,9 @@
       <c r="F10" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="26"/>
+      <c r="G10" s="26" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="17"/>
       <c r="I10" s="17"/>
       <c r="J10" s="17"/>
@@ -1046,7 +1048,7 @@
       <c r="E12" s="22">
         <v>43966</v>
       </c>
-      <c r="F12" s="31" t="s">
+      <c r="F12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="G12" s="26"/>
